--- a/lab-3/data/polyimide.xlsx
+++ b/lab-3/data/polyimide.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momun\Documents\Course-Work\Flexible-Electronics\lab-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3B66E6-DA48-4761-B8F8-D016FB4E06E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D80E03-3219-4DBB-9392-0F4A2B7A983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp56C7" sheetId="1" r:id="rId1"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
   <si>
     <t xml:space="preserve">Data: </t>
   </si>
@@ -360,11 +361,32 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,9 +925,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +965,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +1071,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,496 +1213,498 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M115" activeCellId="4" sqref="E115:E294 G115:G294 I115:I294 K115:K294 M115:M294"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -1727,16 +1751,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>110</v>
       </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" t="s">
-        <v>112</v>
-      </c>
       <c r="D115" t="s">
         <v>111</v>
       </c>
@@ -1822,16 +1840,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>0</v>
       </c>
-      <c r="B116">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="C116">
-        <v>24.401</v>
-      </c>
       <c r="D116">
         <v>0.19900000000000001</v>
       </c>
@@ -1869,16 +1881,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1</v>
       </c>
-      <c r="B117">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C117">
-        <v>24.4</v>
-      </c>
       <c r="D117">
         <v>0.39800000000000002</v>
       </c>
@@ -1916,16 +1922,10 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2</v>
       </c>
-      <c r="B118">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="C118">
-        <v>24.4</v>
-      </c>
       <c r="D118">
         <v>0.59799999999999998</v>
       </c>
@@ -1963,16 +1963,10 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>3</v>
       </c>
-      <c r="B119">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="C119">
-        <v>24.4</v>
-      </c>
       <c r="D119">
         <v>0.79700000000000004</v>
       </c>
@@ -2010,16 +2004,10 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>4</v>
       </c>
-      <c r="B120">
-        <v>0.996</v>
-      </c>
-      <c r="C120">
-        <v>24.4</v>
-      </c>
       <c r="D120">
         <v>0.996</v>
       </c>
@@ -2057,16 +2045,10 @@
         <v>4.5949999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
-      <c r="B121">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="C121">
-        <v>24.4</v>
-      </c>
       <c r="D121">
         <v>1.1950000000000001</v>
       </c>
@@ -2104,16 +2086,10 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>6</v>
       </c>
-      <c r="B122">
-        <v>1.395</v>
-      </c>
-      <c r="C122">
-        <v>24.4</v>
-      </c>
       <c r="D122">
         <v>1.395</v>
       </c>
@@ -2151,16 +2127,10 @@
         <v>7.5270000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7</v>
       </c>
-      <c r="B123">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="C123">
-        <v>24.4</v>
-      </c>
       <c r="D123">
         <v>1.5940000000000001</v>
       </c>
@@ -2198,16 +2168,10 @@
         <v>9.1370000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>8</v>
       </c>
-      <c r="B124">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="C124">
-        <v>24.4</v>
-      </c>
       <c r="D124">
         <v>1.7929999999999999</v>
       </c>
@@ -2245,16 +2209,10 @@
         <v>11.045</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>9</v>
       </c>
-      <c r="B125">
-        <v>1.992</v>
-      </c>
-      <c r="C125">
-        <v>24.4</v>
-      </c>
       <c r="D125">
         <v>1.992</v>
       </c>
@@ -2292,16 +2250,10 @@
         <v>12.455</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>10</v>
       </c>
-      <c r="B126">
-        <v>2.1920000000000002</v>
-      </c>
-      <c r="C126">
-        <v>24.4</v>
-      </c>
       <c r="D126">
         <v>2.1920000000000002</v>
       </c>
@@ -2339,16 +2291,10 @@
         <v>13.432</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>11</v>
       </c>
-      <c r="B127">
-        <v>2.391</v>
-      </c>
-      <c r="C127">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D127">
         <v>2.391</v>
       </c>
@@ -2386,16 +2332,10 @@
         <v>14.884</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>12</v>
       </c>
-      <c r="B128">
-        <v>2.59</v>
-      </c>
-      <c r="C128">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D128">
         <v>2.59</v>
       </c>
@@ -2433,16 +2373,10 @@
         <v>15.914</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>13</v>
       </c>
-      <c r="B129">
-        <v>2.7890000000000001</v>
-      </c>
-      <c r="C129">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D129">
         <v>2.7890000000000001</v>
       </c>
@@ -2480,16 +2414,10 @@
         <v>16.824000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>14</v>
       </c>
-      <c r="B130">
-        <v>2.988</v>
-      </c>
-      <c r="C130">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D130">
         <v>2.988</v>
       </c>
@@ -2527,16 +2455,10 @@
         <v>17.619</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>15</v>
       </c>
-      <c r="B131">
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="C131">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D131">
         <v>3.1880000000000002</v>
       </c>
@@ -2574,16 +2496,10 @@
         <v>18.306999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>16</v>
       </c>
-      <c r="B132">
-        <v>3.387</v>
-      </c>
-      <c r="C132">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D132">
         <v>3.387</v>
       </c>
@@ -2621,16 +2537,10 @@
         <v>18.907</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>17</v>
       </c>
-      <c r="B133">
-        <v>3.5859999999999999</v>
-      </c>
-      <c r="C133">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D133">
         <v>3.5859999999999999</v>
       </c>
@@ -2668,16 +2578,10 @@
         <v>19.422999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>18</v>
       </c>
-      <c r="B134">
-        <v>3.7850000000000001</v>
-      </c>
-      <c r="C134">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D134">
         <v>3.7850000000000001</v>
       </c>
@@ -2715,16 +2619,10 @@
         <v>19.867999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>19</v>
       </c>
-      <c r="B135">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="C135">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D135">
         <v>3.9849999999999999</v>
       </c>
@@ -2762,16 +2660,10 @@
         <v>20.268000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>20</v>
       </c>
-      <c r="B136">
-        <v>4.1840000000000002</v>
-      </c>
-      <c r="C136">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D136">
         <v>4.1840000000000002</v>
       </c>
@@ -2809,16 +2701,10 @@
         <v>20.631</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>21</v>
       </c>
-      <c r="B137">
-        <v>4.383</v>
-      </c>
-      <c r="C137">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D137">
         <v>4.383</v>
       </c>
@@ -2856,16 +2742,10 @@
         <v>20.956</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>22</v>
       </c>
-      <c r="B138">
-        <v>4.5819999999999999</v>
-      </c>
-      <c r="C138">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D138">
         <v>4.5819999999999999</v>
       </c>
@@ -2903,16 +2783,10 @@
         <v>21.177</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>23</v>
       </c>
-      <c r="B139">
-        <v>4.782</v>
-      </c>
-      <c r="C139">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D139">
         <v>4.782</v>
       </c>
@@ -2950,16 +2824,10 @@
         <v>21.513000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
-      <c r="B140">
-        <v>4.9809999999999999</v>
-      </c>
-      <c r="C140">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D140">
         <v>4.9809999999999999</v>
       </c>
@@ -2997,16 +2865,10 @@
         <v>21.805</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>25</v>
       </c>
-      <c r="B141">
-        <v>5.18</v>
-      </c>
-      <c r="C141">
-        <v>24.398</v>
-      </c>
       <c r="D141">
         <v>5.18</v>
       </c>
@@ -3044,16 +2906,10 @@
         <v>21.960999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>26</v>
       </c>
-      <c r="B142">
-        <v>5.3789999999999996</v>
-      </c>
-      <c r="C142">
-        <v>24.398</v>
-      </c>
       <c r="D142">
         <v>5.3789999999999996</v>
       </c>
@@ -3091,16 +2947,10 @@
         <v>22.196000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>27</v>
       </c>
-      <c r="B143">
-        <v>5.5780000000000003</v>
-      </c>
-      <c r="C143">
-        <v>24.398</v>
-      </c>
       <c r="D143">
         <v>5.5780000000000003</v>
       </c>
@@ -3138,16 +2988,10 @@
         <v>22.337</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>28</v>
       </c>
-      <c r="B144">
-        <v>5.7779999999999996</v>
-      </c>
-      <c r="C144">
-        <v>24.398</v>
-      </c>
       <c r="D144">
         <v>5.7779999999999996</v>
       </c>
@@ -3185,16 +3029,10 @@
         <v>22.513999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>29</v>
       </c>
-      <c r="B145">
-        <v>5.9770000000000003</v>
-      </c>
-      <c r="C145">
-        <v>24.398</v>
-      </c>
       <c r="D145">
         <v>5.9770000000000003</v>
       </c>
@@ -3232,16 +3070,10 @@
         <v>22.678000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>30</v>
       </c>
-      <c r="B146">
-        <v>6.1760000000000002</v>
-      </c>
-      <c r="C146">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D146">
         <v>6.1760000000000002</v>
       </c>
@@ -3279,16 +3111,10 @@
         <v>22.827000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>31</v>
       </c>
-      <c r="B147">
-        <v>6.375</v>
-      </c>
-      <c r="C147">
-        <v>24.398</v>
-      </c>
       <c r="D147">
         <v>6.375</v>
       </c>
@@ -3326,16 +3152,10 @@
         <v>22.971</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>32</v>
       </c>
-      <c r="B148">
-        <v>6.5750000000000002</v>
-      </c>
-      <c r="C148">
-        <v>24.398</v>
-      </c>
       <c r="D148">
         <v>6.5750000000000002</v>
       </c>
@@ -3373,16 +3193,10 @@
         <v>23.099</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>33</v>
       </c>
-      <c r="B149">
-        <v>6.774</v>
-      </c>
-      <c r="C149">
-        <v>24.398</v>
-      </c>
       <c r="D149">
         <v>6.774</v>
       </c>
@@ -3420,16 +3234,10 @@
         <v>23.215</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>34</v>
       </c>
-      <c r="B150">
-        <v>6.9729999999999999</v>
-      </c>
-      <c r="C150">
-        <v>24.398</v>
-      </c>
       <c r="D150">
         <v>6.9729999999999999</v>
       </c>
@@ -3467,16 +3275,10 @@
         <v>23.332999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>35</v>
       </c>
-      <c r="B151">
-        <v>7.1719999999999997</v>
-      </c>
-      <c r="C151">
-        <v>24.398</v>
-      </c>
       <c r="D151">
         <v>7.1719999999999997</v>
       </c>
@@ -3514,16 +3316,10 @@
         <v>23.459</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>36</v>
       </c>
-      <c r="B152">
-        <v>7.3719999999999999</v>
-      </c>
-      <c r="C152">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D152">
         <v>7.3719999999999999</v>
       </c>
@@ -3561,16 +3357,10 @@
         <v>23.581</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>37</v>
       </c>
-      <c r="B153">
-        <v>7.5709999999999997</v>
-      </c>
-      <c r="C153">
-        <v>24.398</v>
-      </c>
       <c r="D153">
         <v>7.5709999999999997</v>
       </c>
@@ -3608,16 +3398,10 @@
         <v>23.689</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>38</v>
       </c>
-      <c r="B154">
-        <v>7.77</v>
-      </c>
-      <c r="C154">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D154">
         <v>7.77</v>
       </c>
@@ -3655,16 +3439,10 @@
         <v>23.792999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>39</v>
       </c>
-      <c r="B155">
-        <v>7.9690000000000003</v>
-      </c>
-      <c r="C155">
-        <v>24.398</v>
-      </c>
       <c r="D155">
         <v>7.9690000000000003</v>
       </c>
@@ -3702,16 +3480,10 @@
         <v>23.888999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>40</v>
       </c>
-      <c r="B156">
-        <v>8.1679999999999993</v>
-      </c>
-      <c r="C156">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D156">
         <v>8.1679999999999993</v>
       </c>
@@ -3749,16 +3521,10 @@
         <v>23.975000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>41</v>
       </c>
-      <c r="B157">
-        <v>8.3680000000000003</v>
-      </c>
-      <c r="C157">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D157">
         <v>8.3680000000000003</v>
       </c>
@@ -3796,16 +3562,10 @@
         <v>24.056999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>42</v>
       </c>
-      <c r="B158">
-        <v>8.5670000000000002</v>
-      </c>
-      <c r="C158">
-        <v>24.398</v>
-      </c>
       <c r="D158">
         <v>8.5670000000000002</v>
       </c>
@@ -3843,16 +3603,10 @@
         <v>24.181999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>43</v>
       </c>
-      <c r="B159">
-        <v>8.766</v>
-      </c>
-      <c r="C159">
-        <v>24.398</v>
-      </c>
       <c r="D159">
         <v>8.766</v>
       </c>
@@ -3890,16 +3644,10 @@
         <v>24.259</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>44</v>
       </c>
-      <c r="B160">
-        <v>8.9649999999999999</v>
-      </c>
-      <c r="C160">
-        <v>24.396999999999998</v>
-      </c>
       <c r="D160">
         <v>8.9649999999999999</v>
       </c>
@@ -3937,16 +3685,10 @@
         <v>24.359000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>45</v>
       </c>
-      <c r="B161">
-        <v>9.1649999999999991</v>
-      </c>
-      <c r="C161">
-        <v>24.398</v>
-      </c>
       <c r="D161">
         <v>9.1649999999999991</v>
       </c>
@@ -3984,16 +3726,10 @@
         <v>24.475999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>46</v>
       </c>
-      <c r="B162">
-        <v>9.3640000000000008</v>
-      </c>
-      <c r="C162">
-        <v>24.398</v>
-      </c>
       <c r="D162">
         <v>9.3640000000000008</v>
       </c>
@@ -4031,16 +3767,10 @@
         <v>24.545000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>47</v>
       </c>
-      <c r="B163">
-        <v>9.5630000000000006</v>
-      </c>
-      <c r="C163">
-        <v>24.398</v>
-      </c>
       <c r="D163">
         <v>9.5630000000000006</v>
       </c>
@@ -4078,16 +3808,10 @@
         <v>24.645</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>48</v>
       </c>
-      <c r="B164">
-        <v>9.7620000000000005</v>
-      </c>
-      <c r="C164">
-        <v>24.398</v>
-      </c>
       <c r="D164">
         <v>9.7620000000000005</v>
       </c>
@@ -4125,16 +3849,10 @@
         <v>24.702000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>49</v>
       </c>
-      <c r="B165">
-        <v>9.9610000000000003</v>
-      </c>
-      <c r="C165">
-        <v>24.398</v>
-      </c>
       <c r="D165">
         <v>9.9610000000000003</v>
       </c>
@@ -4172,16 +3890,10 @@
         <v>24.809000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>50</v>
       </c>
-      <c r="B166">
-        <v>10.161</v>
-      </c>
-      <c r="C166">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D166">
         <v>10.161</v>
       </c>
@@ -4219,16 +3931,10 @@
         <v>24.878</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>51</v>
       </c>
-      <c r="B167">
-        <v>10.36</v>
-      </c>
-      <c r="C167">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D167">
         <v>10.36</v>
       </c>
@@ -4266,16 +3972,10 @@
         <v>24.986999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>52</v>
       </c>
-      <c r="B168">
-        <v>10.558999999999999</v>
-      </c>
-      <c r="C168">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D168">
         <v>10.558999999999999</v>
       </c>
@@ -4313,16 +4013,10 @@
         <v>25.048999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>53</v>
       </c>
-      <c r="B169">
-        <v>10.757999999999999</v>
-      </c>
-      <c r="C169">
-        <v>24.399000000000001</v>
-      </c>
       <c r="D169">
         <v>10.757999999999999</v>
       </c>
@@ -4360,16 +4054,10 @@
         <v>25.132999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>54</v>
       </c>
-      <c r="B170">
-        <v>10.958</v>
-      </c>
-      <c r="C170">
-        <v>24.4</v>
-      </c>
       <c r="D170">
         <v>10.958</v>
       </c>
@@ -4407,16 +4095,10 @@
         <v>25.234999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>55</v>
       </c>
-      <c r="B171">
-        <v>11.157</v>
-      </c>
-      <c r="C171">
-        <v>24.401</v>
-      </c>
       <c r="D171">
         <v>11.157</v>
       </c>
@@ -4454,16 +4136,10 @@
         <v>25.286000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>56</v>
       </c>
-      <c r="B172">
-        <v>11.356</v>
-      </c>
-      <c r="C172">
-        <v>24.401</v>
-      </c>
       <c r="D172">
         <v>11.356</v>
       </c>
@@ -4501,16 +4177,10 @@
         <v>25.353999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>57</v>
       </c>
-      <c r="B173">
-        <v>11.555</v>
-      </c>
-      <c r="C173">
-        <v>24.402000000000001</v>
-      </c>
       <c r="D173">
         <v>11.555</v>
       </c>
@@ -4548,16 +4218,10 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>58</v>
       </c>
-      <c r="B174">
-        <v>11.755000000000001</v>
-      </c>
-      <c r="C174">
-        <v>24.402000000000001</v>
-      </c>
       <c r="D174">
         <v>11.755000000000001</v>
       </c>
@@ -4595,16 +4259,10 @@
         <v>25.550999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>59</v>
       </c>
-      <c r="B175">
-        <v>11.954000000000001</v>
-      </c>
-      <c r="C175">
-        <v>24.402999999999999</v>
-      </c>
       <c r="D175">
         <v>11.954000000000001</v>
       </c>
@@ -4642,16 +4300,10 @@
         <v>25.635999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>60</v>
       </c>
-      <c r="B176">
-        <v>12.153</v>
-      </c>
-      <c r="C176">
-        <v>24.404</v>
-      </c>
       <c r="D176">
         <v>12.153</v>
       </c>
@@ -4689,16 +4341,10 @@
         <v>25.699000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>61</v>
       </c>
-      <c r="B177">
-        <v>12.352</v>
-      </c>
-      <c r="C177">
-        <v>24.404</v>
-      </c>
       <c r="D177">
         <v>12.352</v>
       </c>
@@ -4736,16 +4382,10 @@
         <v>25.786000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>62</v>
       </c>
-      <c r="B178">
-        <v>12.551</v>
-      </c>
-      <c r="C178">
-        <v>24.405000000000001</v>
-      </c>
       <c r="D178">
         <v>12.551</v>
       </c>
@@ -4783,16 +4423,10 @@
         <v>25.878</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>63</v>
       </c>
-      <c r="B179">
-        <v>12.750999999999999</v>
-      </c>
-      <c r="C179">
-        <v>24.405000000000001</v>
-      </c>
       <c r="D179">
         <v>12.750999999999999</v>
       </c>
@@ -4830,16 +4464,10 @@
         <v>25.927</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>64</v>
       </c>
-      <c r="B180">
-        <v>12.95</v>
-      </c>
-      <c r="C180">
-        <v>24.405999999999999</v>
-      </c>
       <c r="D180">
         <v>12.95</v>
       </c>
@@ -4877,16 +4505,10 @@
         <v>26.001999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>65</v>
       </c>
-      <c r="B181">
-        <v>13.148999999999999</v>
-      </c>
-      <c r="C181">
-        <v>24.407</v>
-      </c>
       <c r="D181">
         <v>13.148999999999999</v>
       </c>
@@ -4924,16 +4546,10 @@
         <v>26.111999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>66</v>
       </c>
-      <c r="B182">
-        <v>13.348000000000001</v>
-      </c>
-      <c r="C182">
-        <v>24.408999999999999</v>
-      </c>
       <c r="D182">
         <v>13.348000000000001</v>
       </c>
@@ -4971,16 +4587,10 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>67</v>
       </c>
-      <c r="B183">
-        <v>13.548</v>
-      </c>
-      <c r="C183">
-        <v>24.41</v>
-      </c>
       <c r="D183">
         <v>13.548</v>
       </c>
@@ -5018,16 +4628,10 @@
         <v>26.279</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>68</v>
       </c>
-      <c r="B184">
-        <v>13.747</v>
-      </c>
-      <c r="C184">
-        <v>24.411000000000001</v>
-      </c>
       <c r="D184">
         <v>13.747</v>
       </c>
@@ -5065,16 +4669,10 @@
         <v>26.341999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>69</v>
       </c>
-      <c r="B185">
-        <v>13.946</v>
-      </c>
-      <c r="C185">
-        <v>24.411000000000001</v>
-      </c>
       <c r="D185">
         <v>13.946</v>
       </c>
@@ -5112,16 +4710,10 @@
         <v>26.420999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>70</v>
       </c>
-      <c r="B186">
-        <v>14.145</v>
-      </c>
-      <c r="C186">
-        <v>24.414000000000001</v>
-      </c>
       <c r="D186">
         <v>14.145</v>
       </c>
@@ -5159,16 +4751,10 @@
         <v>26.507000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>71</v>
       </c>
-      <c r="B187">
-        <v>14.345000000000001</v>
-      </c>
-      <c r="C187">
-        <v>24.414000000000001</v>
-      </c>
       <c r="D187">
         <v>14.345000000000001</v>
       </c>
@@ -5206,16 +4792,10 @@
         <v>26.553000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>72</v>
       </c>
-      <c r="B188">
-        <v>14.544</v>
-      </c>
-      <c r="C188">
-        <v>24.416</v>
-      </c>
       <c r="D188">
         <v>14.544</v>
       </c>
@@ -5253,16 +4833,10 @@
         <v>26.661999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>73</v>
       </c>
-      <c r="B189">
-        <v>14.743</v>
-      </c>
-      <c r="C189">
-        <v>24.417000000000002</v>
-      </c>
       <c r="D189">
         <v>14.743</v>
       </c>
@@ -5300,16 +4874,10 @@
         <v>26.756</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>74</v>
       </c>
-      <c r="B190">
-        <v>14.942</v>
-      </c>
-      <c r="C190">
-        <v>24.417999999999999</v>
-      </c>
       <c r="D190">
         <v>14.942</v>
       </c>
@@ -5347,16 +4915,10 @@
         <v>26.824000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>75</v>
       </c>
-      <c r="B191">
-        <v>15.141</v>
-      </c>
-      <c r="C191">
-        <v>24.42</v>
-      </c>
       <c r="D191">
         <v>15.141</v>
       </c>
@@ -5394,16 +4956,10 @@
         <v>26.934000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>76</v>
       </c>
-      <c r="B192">
-        <v>15.340999999999999</v>
-      </c>
-      <c r="C192">
-        <v>24.422000000000001</v>
-      </c>
       <c r="D192">
         <v>15.340999999999999</v>
       </c>
@@ -5441,16 +4997,10 @@
         <v>27.021000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>77</v>
       </c>
-      <c r="B193">
-        <v>15.54</v>
-      </c>
-      <c r="C193">
-        <v>24.422999999999998</v>
-      </c>
       <c r="D193">
         <v>15.54</v>
       </c>
@@ -5488,16 +5038,10 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>78</v>
       </c>
-      <c r="B194">
-        <v>15.739000000000001</v>
-      </c>
-      <c r="C194">
-        <v>24.425000000000001</v>
-      </c>
       <c r="D194">
         <v>15.739000000000001</v>
       </c>
@@ -5535,16 +5079,10 @@
         <v>27.167999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>79</v>
       </c>
-      <c r="B195">
-        <v>15.938000000000001</v>
-      </c>
-      <c r="C195">
-        <v>24.427</v>
-      </c>
       <c r="D195">
         <v>15.938000000000001</v>
       </c>
@@ -5582,16 +5120,10 @@
         <v>27.228000000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>80</v>
       </c>
-      <c r="B196">
-        <v>16.138000000000002</v>
-      </c>
-      <c r="C196">
-        <v>24.428999999999998</v>
-      </c>
       <c r="D196">
         <v>16.138000000000002</v>
       </c>
@@ -5629,16 +5161,10 @@
         <v>27.347000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>81</v>
       </c>
-      <c r="B197">
-        <v>16.337</v>
-      </c>
-      <c r="C197">
-        <v>24.431000000000001</v>
-      </c>
       <c r="D197">
         <v>16.337</v>
       </c>
@@ -5676,16 +5202,10 @@
         <v>27.445</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>82</v>
       </c>
-      <c r="B198">
-        <v>16.536000000000001</v>
-      </c>
-      <c r="C198">
-        <v>24.431999999999999</v>
-      </c>
       <c r="D198">
         <v>16.536000000000001</v>
       </c>
@@ -5723,16 +5243,10 @@
         <v>27.527000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>83</v>
       </c>
-      <c r="B199">
-        <v>16.734999999999999</v>
-      </c>
-      <c r="C199">
-        <v>24.434000000000001</v>
-      </c>
       <c r="D199">
         <v>16.734999999999999</v>
       </c>
@@ -5770,16 +5284,10 @@
         <v>27.614999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>84</v>
       </c>
-      <c r="B200">
-        <v>16.934999999999999</v>
-      </c>
-      <c r="C200">
-        <v>24.437000000000001</v>
-      </c>
       <c r="D200">
         <v>16.934999999999999</v>
       </c>
@@ -5817,16 +5325,10 @@
         <v>27.675999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>85</v>
       </c>
-      <c r="B201">
-        <v>17.134</v>
-      </c>
-      <c r="C201">
-        <v>24.439</v>
-      </c>
       <c r="D201">
         <v>17.134</v>
       </c>
@@ -5864,16 +5366,10 @@
         <v>27.77</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>86</v>
       </c>
-      <c r="B202">
-        <v>17.332999999999998</v>
-      </c>
-      <c r="C202">
-        <v>24.440999999999999</v>
-      </c>
       <c r="D202">
         <v>17.332999999999998</v>
       </c>
@@ -5911,16 +5407,10 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>87</v>
       </c>
-      <c r="B203">
-        <v>17.532</v>
-      </c>
-      <c r="C203">
-        <v>24.443000000000001</v>
-      </c>
       <c r="D203">
         <v>17.532</v>
       </c>
@@ -5958,16 +5448,10 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>88</v>
       </c>
-      <c r="B204">
-        <v>17.731000000000002</v>
-      </c>
-      <c r="C204">
-        <v>24.446000000000002</v>
-      </c>
       <c r="D204">
         <v>17.731000000000002</v>
       </c>
@@ -6005,16 +5489,10 @@
         <v>28.033999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>89</v>
       </c>
-      <c r="B205">
-        <v>17.931000000000001</v>
-      </c>
-      <c r="C205">
-        <v>24.448</v>
-      </c>
       <c r="D205">
         <v>17.931000000000001</v>
       </c>
@@ -6052,16 +5530,10 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>90</v>
       </c>
-      <c r="B206">
-        <v>18.13</v>
-      </c>
-      <c r="C206">
-        <v>24.45</v>
-      </c>
       <c r="D206">
         <v>18.13</v>
       </c>
@@ -6099,16 +5571,10 @@
         <v>28.196999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>91</v>
       </c>
-      <c r="B207">
-        <v>18.329000000000001</v>
-      </c>
-      <c r="C207">
-        <v>24.452999999999999</v>
-      </c>
       <c r="D207">
         <v>18.329000000000001</v>
       </c>
@@ -6146,16 +5612,10 @@
         <v>28.315000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>92</v>
       </c>
-      <c r="B208">
-        <v>18.527999999999999</v>
-      </c>
-      <c r="C208">
-        <v>24.456</v>
-      </c>
       <c r="D208">
         <v>18.527999999999999</v>
       </c>
@@ -6193,16 +5653,10 @@
         <v>28.396999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>93</v>
       </c>
-      <c r="B209">
-        <v>18.728000000000002</v>
-      </c>
-      <c r="C209">
-        <v>24.457999999999998</v>
-      </c>
       <c r="D209">
         <v>18.728000000000002</v>
       </c>
@@ -6240,16 +5694,10 @@
         <v>28.469000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>94</v>
       </c>
-      <c r="B210">
-        <v>18.927</v>
-      </c>
-      <c r="C210">
-        <v>24.460999999999999</v>
-      </c>
       <c r="D210">
         <v>18.927</v>
       </c>
@@ -6287,16 +5735,10 @@
         <v>28.587</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>95</v>
       </c>
-      <c r="B211">
-        <v>19.126000000000001</v>
-      </c>
-      <c r="C211">
-        <v>24.463000000000001</v>
-      </c>
       <c r="D211">
         <v>19.126000000000001</v>
       </c>
@@ -6334,16 +5776,10 @@
         <v>28.670999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>96</v>
       </c>
-      <c r="B212">
-        <v>19.324999999999999</v>
-      </c>
-      <c r="C212">
-        <v>24.466000000000001</v>
-      </c>
       <c r="D212">
         <v>19.324999999999999</v>
       </c>
@@ -6381,16 +5817,10 @@
         <v>28.806000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>97</v>
       </c>
-      <c r="B213">
-        <v>19.524999999999999</v>
-      </c>
-      <c r="C213">
-        <v>24.468</v>
-      </c>
       <c r="D213">
         <v>19.524999999999999</v>
       </c>
@@ -6428,16 +5858,10 @@
         <v>28.873999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>98</v>
       </c>
-      <c r="B214">
-        <v>19.724</v>
-      </c>
-      <c r="C214">
-        <v>24.471</v>
-      </c>
       <c r="D214">
         <v>19.724</v>
       </c>
@@ -6475,16 +5899,10 @@
         <v>28.962</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>99</v>
       </c>
-      <c r="B215">
-        <v>19.922999999999998</v>
-      </c>
-      <c r="C215">
-        <v>24.475000000000001</v>
-      </c>
       <c r="D215">
         <v>19.922999999999998</v>
       </c>
@@ -6522,16 +5940,10 @@
         <v>29.042000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>100</v>
       </c>
-      <c r="B216">
-        <v>20.122</v>
-      </c>
-      <c r="C216">
-        <v>24.477</v>
-      </c>
       <c r="D216">
         <v>20.122</v>
       </c>
@@ -6569,16 +5981,10 @@
         <v>29.114000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>101</v>
       </c>
-      <c r="B217">
-        <v>20.321000000000002</v>
-      </c>
-      <c r="C217">
-        <v>24.48</v>
-      </c>
       <c r="D217">
         <v>20.321000000000002</v>
       </c>
@@ -6616,16 +6022,10 @@
         <v>29.184000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>102</v>
       </c>
-      <c r="B218">
-        <v>20.521000000000001</v>
-      </c>
-      <c r="C218">
-        <v>24.484000000000002</v>
-      </c>
       <c r="D218">
         <v>20.521000000000001</v>
       </c>
@@ -6663,16 +6063,10 @@
         <v>29.306999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>103</v>
       </c>
-      <c r="B219">
-        <v>20.72</v>
-      </c>
-      <c r="C219">
-        <v>24.486999999999998</v>
-      </c>
       <c r="D219">
         <v>20.72</v>
       </c>
@@ -6710,16 +6104,10 @@
         <v>29.388000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>104</v>
       </c>
-      <c r="B220">
-        <v>20.919</v>
-      </c>
-      <c r="C220">
-        <v>24.489000000000001</v>
-      </c>
       <c r="D220">
         <v>20.919</v>
       </c>
@@ -6757,16 +6145,10 @@
         <v>29.492999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>105</v>
       </c>
-      <c r="B221">
-        <v>21.117999999999999</v>
-      </c>
-      <c r="C221">
-        <v>24.492000000000001</v>
-      </c>
       <c r="D221">
         <v>21.117999999999999</v>
       </c>
@@ -6804,16 +6186,10 @@
         <v>29.585999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>106</v>
       </c>
-      <c r="B222">
-        <v>21.318000000000001</v>
-      </c>
-      <c r="C222">
-        <v>24.495999999999999</v>
-      </c>
       <c r="D222">
         <v>21.318000000000001</v>
       </c>
@@ -6851,16 +6227,10 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>107</v>
       </c>
-      <c r="B223">
-        <v>21.516999999999999</v>
-      </c>
-      <c r="C223">
-        <v>24.498999999999999</v>
-      </c>
       <c r="D223">
         <v>21.516999999999999</v>
       </c>
@@ -6898,16 +6268,10 @@
         <v>29.762</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>108</v>
       </c>
-      <c r="B224">
-        <v>21.716000000000001</v>
-      </c>
-      <c r="C224">
-        <v>24.501999999999999</v>
-      </c>
       <c r="D224">
         <v>21.716000000000001</v>
       </c>
@@ -6945,16 +6309,10 @@
         <v>29.835999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>109</v>
       </c>
-      <c r="B225">
-        <v>21.914999999999999</v>
-      </c>
-      <c r="C225">
-        <v>24.506</v>
-      </c>
       <c r="D225">
         <v>21.914999999999999</v>
       </c>
@@ -6992,16 +6350,10 @@
         <v>29.952999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>110</v>
       </c>
-      <c r="B226">
-        <v>22.114999999999998</v>
-      </c>
-      <c r="C226">
-        <v>24.507999999999999</v>
-      </c>
       <c r="D226">
         <v>22.114999999999998</v>
       </c>
@@ -7039,16 +6391,10 @@
         <v>30.036000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>111</v>
       </c>
-      <c r="B227">
-        <v>22.314</v>
-      </c>
-      <c r="C227">
-        <v>24.512</v>
-      </c>
       <c r="D227">
         <v>22.314</v>
       </c>
@@ -7086,16 +6432,10 @@
         <v>30.143000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>112</v>
       </c>
-      <c r="B228">
-        <v>22.513000000000002</v>
-      </c>
-      <c r="C228">
-        <v>24.515999999999998</v>
-      </c>
       <c r="D228">
         <v>22.513000000000002</v>
       </c>
@@ -7133,16 +6473,10 @@
         <v>30.234999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>113</v>
       </c>
-      <c r="B229">
-        <v>22.712</v>
-      </c>
-      <c r="C229">
-        <v>24.518000000000001</v>
-      </c>
       <c r="D229">
         <v>22.712</v>
       </c>
@@ -7180,16 +6514,10 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>114</v>
       </c>
-      <c r="B230">
-        <v>22.911000000000001</v>
-      </c>
-      <c r="C230">
-        <v>24.523</v>
-      </c>
       <c r="D230">
         <v>22.911000000000001</v>
       </c>
@@ -7227,16 +6555,10 @@
         <v>30.440999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>115</v>
       </c>
-      <c r="B231">
-        <v>23.111000000000001</v>
-      </c>
-      <c r="C231">
-        <v>24.526</v>
-      </c>
       <c r="D231">
         <v>23.111000000000001</v>
       </c>
@@ -7274,16 +6596,10 @@
         <v>30.524999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>116</v>
       </c>
-      <c r="B232">
-        <v>23.31</v>
-      </c>
-      <c r="C232">
-        <v>24.529</v>
-      </c>
       <c r="D232">
         <v>23.31</v>
       </c>
@@ -7321,16 +6637,10 @@
         <v>30.585000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>117</v>
       </c>
-      <c r="B233">
-        <v>23.509</v>
-      </c>
-      <c r="C233">
-        <v>24.533999999999999</v>
-      </c>
       <c r="D233">
         <v>23.509</v>
       </c>
@@ -7368,16 +6678,10 @@
         <v>30.724</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>118</v>
       </c>
-      <c r="B234">
-        <v>23.707999999999998</v>
-      </c>
-      <c r="C234">
-        <v>24.536000000000001</v>
-      </c>
       <c r="D234">
         <v>23.707999999999998</v>
       </c>
@@ -7415,16 +6719,10 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>119</v>
       </c>
-      <c r="B235">
-        <v>23.908000000000001</v>
-      </c>
-      <c r="C235">
-        <v>24.54</v>
-      </c>
       <c r="D235">
         <v>23.908000000000001</v>
       </c>
@@ -7462,16 +6760,10 @@
         <v>30.920999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>120</v>
       </c>
-      <c r="B236">
-        <v>24.106999999999999</v>
-      </c>
-      <c r="C236">
-        <v>24.542999999999999</v>
-      </c>
       <c r="D236">
         <v>24.106999999999999</v>
       </c>
@@ -7509,16 +6801,10 @@
         <v>31.041</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>121</v>
       </c>
-      <c r="B237">
-        <v>24.306000000000001</v>
-      </c>
-      <c r="C237">
-        <v>24.547000000000001</v>
-      </c>
       <c r="D237">
         <v>24.306000000000001</v>
       </c>
@@ -7556,16 +6842,10 @@
         <v>31.111000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>122</v>
       </c>
-      <c r="B238">
-        <v>24.504999999999999</v>
-      </c>
-      <c r="C238">
-        <v>24.550999999999998</v>
-      </c>
       <c r="D238">
         <v>24.504999999999999</v>
       </c>
@@ -7603,16 +6883,10 @@
         <v>31.212</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>123</v>
       </c>
-      <c r="B239">
-        <v>24.704999999999998</v>
-      </c>
-      <c r="C239">
-        <v>24.553999999999998</v>
-      </c>
       <c r="D239">
         <v>24.704999999999998</v>
       </c>
@@ -7650,16 +6924,10 @@
         <v>31.268000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>124</v>
       </c>
-      <c r="B240">
-        <v>24.904</v>
-      </c>
-      <c r="C240">
-        <v>24.558</v>
-      </c>
       <c r="D240">
         <v>24.904</v>
       </c>
@@ -7697,16 +6965,10 @@
         <v>31.376999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>125</v>
       </c>
-      <c r="B241">
-        <v>25.103000000000002</v>
-      </c>
-      <c r="C241">
-        <v>24.562000000000001</v>
-      </c>
       <c r="D241">
         <v>25.103000000000002</v>
       </c>
@@ -7744,16 +7006,10 @@
         <v>31.454999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>126</v>
       </c>
-      <c r="B242">
-        <v>25.302</v>
-      </c>
-      <c r="C242">
-        <v>24.567</v>
-      </c>
       <c r="D242">
         <v>25.302</v>
       </c>
@@ -7791,16 +7047,10 @@
         <v>31.582000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>127</v>
       </c>
-      <c r="B243">
-        <v>25.501000000000001</v>
-      </c>
-      <c r="C243">
-        <v>24.571000000000002</v>
-      </c>
       <c r="D243">
         <v>25.501000000000001</v>
       </c>
@@ -7838,16 +7088,10 @@
         <v>31.678000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>128</v>
       </c>
-      <c r="B244">
-        <v>25.701000000000001</v>
-      </c>
-      <c r="C244">
-        <v>24.574000000000002</v>
-      </c>
       <c r="D244">
         <v>25.701000000000001</v>
       </c>
@@ -7885,16 +7129,10 @@
         <v>31.777999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>129</v>
       </c>
-      <c r="B245">
-        <v>25.9</v>
-      </c>
-      <c r="C245">
-        <v>24.577999999999999</v>
-      </c>
       <c r="D245">
         <v>25.9</v>
       </c>
@@ -7932,16 +7170,10 @@
         <v>31.869</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>130</v>
       </c>
-      <c r="B246">
-        <v>26.099</v>
-      </c>
-      <c r="C246">
-        <v>24.582000000000001</v>
-      </c>
       <c r="D246">
         <v>26.099</v>
       </c>
@@ -7979,16 +7211,10 @@
         <v>31.948</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>131</v>
       </c>
-      <c r="B247">
-        <v>26.297999999999998</v>
-      </c>
-      <c r="C247">
-        <v>24.585999999999999</v>
-      </c>
       <c r="D247">
         <v>26.297999999999998</v>
       </c>
@@ -8026,16 +7252,10 @@
         <v>32.033000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>132</v>
       </c>
-      <c r="B248">
-        <v>26.498000000000001</v>
-      </c>
-      <c r="C248">
-        <v>24.588999999999999</v>
-      </c>
       <c r="D248">
         <v>26.498000000000001</v>
       </c>
@@ -8073,16 +7293,10 @@
         <v>32.145000000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>133</v>
       </c>
-      <c r="B249">
-        <v>26.696999999999999</v>
-      </c>
-      <c r="C249">
-        <v>24.591999999999999</v>
-      </c>
       <c r="D249">
         <v>26.696999999999999</v>
       </c>
@@ -8120,16 +7334,10 @@
         <v>32.261000000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>134</v>
       </c>
-      <c r="B250">
-        <v>26.896000000000001</v>
-      </c>
-      <c r="C250">
-        <v>24.597999999999999</v>
-      </c>
       <c r="D250">
         <v>26.896000000000001</v>
       </c>
@@ -8167,16 +7375,10 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>135</v>
       </c>
-      <c r="B251">
-        <v>27.094999999999999</v>
-      </c>
-      <c r="C251">
-        <v>24.602</v>
-      </c>
       <c r="D251">
         <v>27.094999999999999</v>
       </c>
@@ -8214,16 +7416,10 @@
         <v>32.475000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>136</v>
       </c>
-      <c r="B252">
-        <v>27.295000000000002</v>
-      </c>
-      <c r="C252">
-        <v>24.605</v>
-      </c>
       <c r="D252">
         <v>27.295000000000002</v>
       </c>
@@ -8261,16 +7457,10 @@
         <v>32.552999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>137</v>
       </c>
-      <c r="B253">
-        <v>27.494</v>
-      </c>
-      <c r="C253">
-        <v>24.609000000000002</v>
-      </c>
       <c r="D253">
         <v>27.494</v>
       </c>
@@ -8308,16 +7498,10 @@
         <v>32.665999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>138</v>
       </c>
-      <c r="B254">
-        <v>27.693000000000001</v>
-      </c>
-      <c r="C254">
-        <v>24.611999999999998</v>
-      </c>
       <c r="D254">
         <v>27.693000000000001</v>
       </c>
@@ -8355,16 +7539,10 @@
         <v>32.749000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>139</v>
       </c>
-      <c r="B255">
-        <v>27.891999999999999</v>
-      </c>
-      <c r="C255">
-        <v>24.617000000000001</v>
-      </c>
       <c r="D255">
         <v>27.891999999999999</v>
       </c>
@@ -8402,16 +7580,10 @@
         <v>32.851999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>140</v>
       </c>
-      <c r="B256">
-        <v>28.091000000000001</v>
-      </c>
-      <c r="C256">
-        <v>24.62</v>
-      </c>
       <c r="D256">
         <v>28.091000000000001</v>
       </c>
@@ -8449,16 +7621,10 @@
         <v>32.94</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>141</v>
       </c>
-      <c r="B257">
-        <v>28.291</v>
-      </c>
-      <c r="C257">
-        <v>24.625</v>
-      </c>
       <c r="D257">
         <v>28.291</v>
       </c>
@@ -8496,16 +7662,10 @@
         <v>33.084000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>142</v>
       </c>
-      <c r="B258">
-        <v>28.49</v>
-      </c>
-      <c r="C258">
-        <v>24.628</v>
-      </c>
       <c r="D258">
         <v>28.49</v>
       </c>
@@ -8543,16 +7703,10 @@
         <v>33.182000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>143</v>
       </c>
-      <c r="B259">
-        <v>28.689</v>
-      </c>
-      <c r="C259">
-        <v>24.632999999999999</v>
-      </c>
       <c r="D259">
         <v>28.689</v>
       </c>
@@ -8590,16 +7744,10 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>144</v>
       </c>
-      <c r="B260">
-        <v>28.888000000000002</v>
-      </c>
-      <c r="C260">
-        <v>24.638000000000002</v>
-      </c>
       <c r="D260">
         <v>28.888000000000002</v>
       </c>
@@ -8637,16 +7785,10 @@
         <v>33.378999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>145</v>
       </c>
-      <c r="B261">
-        <v>29.088000000000001</v>
-      </c>
-      <c r="C261">
-        <v>24.64</v>
-      </c>
       <c r="D261">
         <v>29.088000000000001</v>
       </c>
@@ -8684,16 +7826,10 @@
         <v>33.465000000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>146</v>
       </c>
-      <c r="B262">
-        <v>29.286999999999999</v>
-      </c>
-      <c r="C262">
-        <v>24.645</v>
-      </c>
       <c r="D262">
         <v>29.286999999999999</v>
       </c>
@@ -8731,16 +7867,10 @@
         <v>33.524999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>147</v>
       </c>
-      <c r="B263">
-        <v>29.486000000000001</v>
-      </c>
-      <c r="C263">
-        <v>24.648</v>
-      </c>
       <c r="D263">
         <v>29.486000000000001</v>
       </c>
@@ -8778,16 +7908,10 @@
         <v>33.659999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>148</v>
       </c>
-      <c r="B264">
-        <v>29.684999999999999</v>
-      </c>
-      <c r="C264">
-        <v>24.652999999999999</v>
-      </c>
       <c r="D264">
         <v>29.684999999999999</v>
       </c>
@@ -8825,16 +7949,10 @@
         <v>33.808999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>149</v>
       </c>
-      <c r="B265">
-        <v>29.885000000000002</v>
-      </c>
-      <c r="C265">
-        <v>24.655999999999999</v>
-      </c>
       <c r="D265">
         <v>29.885000000000002</v>
       </c>
@@ -8872,16 +7990,10 @@
         <v>33.895000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>150</v>
       </c>
-      <c r="B266">
-        <v>30.084</v>
-      </c>
-      <c r="C266">
-        <v>24.66</v>
-      </c>
       <c r="D266">
         <v>30.084</v>
       </c>
@@ -8919,16 +8031,10 @@
         <v>34.003999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>151</v>
       </c>
-      <c r="B267">
-        <v>30.283000000000001</v>
-      </c>
-      <c r="C267">
-        <v>24.666</v>
-      </c>
       <c r="D267">
         <v>30.283000000000001</v>
       </c>
@@ -8966,16 +8072,10 @@
         <v>34.121000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>152</v>
       </c>
-      <c r="B268">
-        <v>30.481999999999999</v>
-      </c>
-      <c r="C268">
-        <v>24.669</v>
-      </c>
       <c r="D268">
         <v>30.481999999999999</v>
       </c>
@@ -9013,16 +8113,10 @@
         <v>34.225000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>153</v>
       </c>
-      <c r="B269">
-        <v>30.681000000000001</v>
-      </c>
-      <c r="C269">
-        <v>24.673999999999999</v>
-      </c>
       <c r="D269">
         <v>30.681000000000001</v>
       </c>
@@ -9060,16 +8154,10 @@
         <v>34.317999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>154</v>
       </c>
-      <c r="B270">
-        <v>30.881</v>
-      </c>
-      <c r="C270">
-        <v>24.677</v>
-      </c>
       <c r="D270">
         <v>30.881</v>
       </c>
@@ -9107,16 +8195,10 @@
         <v>34.424999999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>155</v>
       </c>
-      <c r="B271">
-        <v>31.08</v>
-      </c>
-      <c r="C271">
-        <v>24.681000000000001</v>
-      </c>
       <c r="D271">
         <v>31.08</v>
       </c>
@@ -9154,16 +8236,10 @@
         <v>34.545000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>156</v>
       </c>
-      <c r="B272">
-        <v>31.279</v>
-      </c>
-      <c r="C272">
-        <v>24.684999999999999</v>
-      </c>
       <c r="D272">
         <v>31.279</v>
       </c>
@@ -9201,16 +8277,10 @@
         <v>34.661000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>157</v>
       </c>
-      <c r="B273">
-        <v>31.478000000000002</v>
-      </c>
-      <c r="C273">
-        <v>24.689</v>
-      </c>
       <c r="D273">
         <v>31.478000000000002</v>
       </c>
@@ -9248,16 +8318,10 @@
         <v>34.761000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>158</v>
       </c>
-      <c r="B274">
-        <v>31.678000000000001</v>
-      </c>
-      <c r="C274">
-        <v>24.693000000000001</v>
-      </c>
       <c r="D274">
         <v>31.678000000000001</v>
       </c>
@@ -9295,16 +8359,10 @@
         <v>34.866</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>159</v>
       </c>
-      <c r="B275">
-        <v>31.876999999999999</v>
-      </c>
-      <c r="C275">
-        <v>24.696999999999999</v>
-      </c>
       <c r="D275">
         <v>31.876999999999999</v>
       </c>
@@ -9342,16 +8400,10 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>160</v>
       </c>
-      <c r="B276">
-        <v>32.076000000000001</v>
-      </c>
-      <c r="C276">
-        <v>24.702999999999999</v>
-      </c>
       <c r="D276">
         <v>32.076000000000001</v>
       </c>
@@ -9389,16 +8441,10 @@
         <v>35.042999999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>161</v>
       </c>
-      <c r="B277">
-        <v>32.274999999999999</v>
-      </c>
-      <c r="C277">
-        <v>24.704999999999998</v>
-      </c>
       <c r="D277">
         <v>32.274999999999999</v>
       </c>
@@ -9436,16 +8482,10 @@
         <v>35.121000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>162</v>
       </c>
-      <c r="B278">
-        <v>32.475000000000001</v>
-      </c>
-      <c r="C278">
-        <v>24.710999999999999</v>
-      </c>
       <c r="D278">
         <v>32.475000000000001</v>
       </c>
@@ -9483,16 +8523,10 @@
         <v>35.256</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>163</v>
       </c>
-      <c r="B279">
-        <v>32.673999999999999</v>
-      </c>
-      <c r="C279">
-        <v>24.715</v>
-      </c>
       <c r="D279">
         <v>32.673999999999999</v>
       </c>
@@ -9530,16 +8564,10 @@
         <v>35.338999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>164</v>
       </c>
-      <c r="B280">
-        <v>32.872999999999998</v>
-      </c>
-      <c r="C280">
-        <v>24.718</v>
-      </c>
       <c r="D280">
         <v>32.872999999999998</v>
       </c>
@@ -9577,16 +8605,10 @@
         <v>35.445</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>165</v>
       </c>
-      <c r="B281">
-        <v>33.072000000000003</v>
-      </c>
-      <c r="C281">
-        <v>24.722000000000001</v>
-      </c>
       <c r="D281">
         <v>33.072000000000003</v>
       </c>
@@ -9624,16 +8646,10 @@
         <v>33.893000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>166</v>
       </c>
-      <c r="B282">
-        <v>33.271000000000001</v>
-      </c>
-      <c r="C282">
-        <v>24.725999999999999</v>
-      </c>
       <c r="D282">
         <v>33.271000000000001</v>
       </c>
@@ -9671,16 +8687,10 @@
         <v>8.7720000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>167</v>
       </c>
-      <c r="B283">
-        <v>33.470999999999997</v>
-      </c>
-      <c r="C283">
-        <v>24.73</v>
-      </c>
       <c r="D283">
         <v>33.470999999999997</v>
       </c>
@@ -9718,16 +8728,10 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>168</v>
       </c>
-      <c r="B284">
-        <v>33.67</v>
-      </c>
-      <c r="C284">
-        <v>24.736000000000001</v>
-      </c>
       <c r="D284">
         <v>33.67</v>
       </c>
@@ -9765,16 +8769,10 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>169</v>
       </c>
-      <c r="B285">
-        <v>33.869</v>
-      </c>
-      <c r="C285">
-        <v>24.739000000000001</v>
-      </c>
       <c r="D285">
         <v>33.869</v>
       </c>
@@ -9812,16 +8810,10 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>170</v>
       </c>
-      <c r="B286">
-        <v>34.067999999999998</v>
-      </c>
-      <c r="C286">
-        <v>24.742999999999999</v>
-      </c>
       <c r="D286">
         <v>34.067999999999998</v>
       </c>
@@ -9859,16 +8851,10 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>171</v>
       </c>
-      <c r="B287">
-        <v>34.268000000000001</v>
-      </c>
-      <c r="C287">
-        <v>24.748000000000001</v>
-      </c>
       <c r="D287">
         <v>34.268000000000001</v>
       </c>
@@ -9906,16 +8892,10 @@
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>172</v>
       </c>
-      <c r="B288">
-        <v>34.466999999999999</v>
-      </c>
-      <c r="C288">
-        <v>24.751000000000001</v>
-      </c>
       <c r="D288">
         <v>34.466999999999999</v>
       </c>
@@ -9953,16 +8933,10 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>173</v>
       </c>
-      <c r="B289">
-        <v>34.665999999999997</v>
-      </c>
-      <c r="C289">
-        <v>24.756</v>
-      </c>
       <c r="D289">
         <v>34.665999999999997</v>
       </c>
@@ -10000,16 +8974,10 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>174</v>
       </c>
-      <c r="B290">
-        <v>34.865000000000002</v>
-      </c>
-      <c r="C290">
-        <v>24.76</v>
-      </c>
       <c r="D290">
         <v>34.865000000000002</v>
       </c>
@@ -10047,16 +9015,10 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>175</v>
       </c>
-      <c r="B291">
-        <v>35.064</v>
-      </c>
-      <c r="C291">
-        <v>24.763999999999999</v>
-      </c>
       <c r="D291">
         <v>35.064</v>
       </c>
@@ -10094,16 +9056,10 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>176</v>
       </c>
-      <c r="B292">
-        <v>35.264000000000003</v>
-      </c>
-      <c r="C292">
-        <v>24.766999999999999</v>
-      </c>
       <c r="D292">
         <v>35.264000000000003</v>
       </c>
@@ -10141,16 +9097,10 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>177</v>
       </c>
-      <c r="B293">
-        <v>35.463000000000001</v>
-      </c>
-      <c r="C293">
-        <v>24.771000000000001</v>
-      </c>
       <c r="D293">
         <v>35.463000000000001</v>
       </c>
@@ -10188,16 +9138,10 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>178</v>
       </c>
-      <c r="B294">
-        <v>35.661999999999999</v>
-      </c>
-      <c r="C294">
-        <v>24.776</v>
-      </c>
       <c r="D294">
         <v>35.661999999999999</v>
       </c>
@@ -10233,6 +9177,4161 @@
       </c>
       <c r="AE294">
         <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930A607E-4FDF-42B4-BDEB-55374345B491}">
+  <dimension ref="A1:G180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B2">
+        <v>24.401</v>
+      </c>
+      <c r="C2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.65E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.316E-2</v>
+      </c>
+      <c r="G2">
+        <v>15.053800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="B3">
+        <v>24.4</v>
+      </c>
+      <c r="C3">
+        <v>0.157</v>
+      </c>
+      <c r="D3">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="E3">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.15726999999999999</v>
+      </c>
+      <c r="G3">
+        <v>15.0662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="B4">
+        <v>24.4</v>
+      </c>
+      <c r="C4">
+        <v>1.33</v>
+      </c>
+      <c r="D4">
+        <v>0.1124</v>
+      </c>
+      <c r="E4">
+        <v>3.8899999999999998E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.32995</v>
+      </c>
+      <c r="G4">
+        <v>15.112399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="B5">
+        <v>24.4</v>
+      </c>
+      <c r="C5">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.1401</v>
+      </c>
+      <c r="E5">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.50881</v>
+      </c>
+      <c r="G5">
+        <v>15.1401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.996</v>
+      </c>
+      <c r="B6">
+        <v>24.4</v>
+      </c>
+      <c r="C6">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="E6">
+        <v>9.0100000000000006E-3</v>
+      </c>
+      <c r="F6">
+        <v>4.5952400000000004</v>
+      </c>
+      <c r="G6">
+        <v>15.189399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="B7">
+        <v>24.4</v>
+      </c>
+      <c r="C7">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.093E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8606100000000003</v>
+      </c>
+      <c r="G7">
+        <v>15.218299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.395</v>
+      </c>
+      <c r="B8">
+        <v>24.4</v>
+      </c>
+      <c r="C8">
+        <v>7.5270000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.5267600000000003</v>
+      </c>
+      <c r="G8">
+        <v>15.256600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="B9">
+        <v>24.4</v>
+      </c>
+      <c r="C9">
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.6140000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.1372999999999998</v>
+      </c>
+      <c r="G9">
+        <v>15.296799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="B10">
+        <v>24.4</v>
+      </c>
+      <c r="C10">
+        <v>11.045</v>
+      </c>
+      <c r="D10">
+        <v>0.3483</v>
+      </c>
+      <c r="E10">
+        <v>1.9560000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>11.044750000000001</v>
+      </c>
+      <c r="G10">
+        <v>15.3483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1.992</v>
+      </c>
+      <c r="B11">
+        <v>24.4</v>
+      </c>
+      <c r="C11">
+        <v>12.455</v>
+      </c>
+      <c r="D11">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.223E-2</v>
+      </c>
+      <c r="F11">
+        <v>12.454660000000001</v>
+      </c>
+      <c r="G11">
+        <v>15.388500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="B12">
+        <v>24.4</v>
+      </c>
+      <c r="C12">
+        <v>13.432</v>
+      </c>
+      <c r="D12">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="E12">
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>13.431950000000001</v>
+      </c>
+      <c r="G12">
+        <v>15.418699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2.391</v>
+      </c>
+      <c r="B13">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C13">
+        <v>14.884</v>
+      </c>
+      <c r="D13">
+        <v>0.47</v>
+      </c>
+      <c r="E13">
+        <v>2.7640000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>14.883789999999999</v>
+      </c>
+      <c r="G13">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2.59</v>
+      </c>
+      <c r="B14">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C14">
+        <v>15.914</v>
+      </c>
+      <c r="D14">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="E14">
+        <v>2.972E-2</v>
+      </c>
+      <c r="F14">
+        <v>15.91409</v>
+      </c>
+      <c r="G14">
+        <v>15.501300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="B15">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C15">
+        <v>16.824000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.5413</v>
+      </c>
+      <c r="E15">
+        <v>3.2379999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>16.82413</v>
+      </c>
+      <c r="G15">
+        <v>15.5413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2.988</v>
+      </c>
+      <c r="B16">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C16">
+        <v>17.619</v>
+      </c>
+      <c r="D16">
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="E16">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>17.619289999999999</v>
+      </c>
+      <c r="G16">
+        <v>15.5799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="B17">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C17">
+        <v>18.306999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.63019999999999998</v>
+      </c>
+      <c r="E17">
+        <v>3.8289999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>18.307459999999999</v>
+      </c>
+      <c r="G17">
+        <v>15.6302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3.387</v>
+      </c>
+      <c r="B18">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C18">
+        <v>18.907</v>
+      </c>
+      <c r="D18">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="E18">
+        <v>4.0230000000000002E-2</v>
+      </c>
+      <c r="F18">
+        <v>18.90681</v>
+      </c>
+      <c r="G18">
+        <v>15.6595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="B19">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C19">
+        <v>19.422999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="E19">
+        <v>4.3339999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>19.423089999999998</v>
+      </c>
+      <c r="G19">
+        <v>15.706300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="B20">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C20">
+        <v>19.867999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="E20">
+        <v>4.521E-2</v>
+      </c>
+      <c r="F20">
+        <v>19.868449999999999</v>
+      </c>
+      <c r="G20">
+        <v>15.734400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="B21">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C21">
+        <v>20.268000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="E21">
+        <v>4.854E-2</v>
+      </c>
+      <c r="F21">
+        <v>20.268170000000001</v>
+      </c>
+      <c r="G21">
+        <v>15.7845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="B22">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C22">
+        <v>20.631</v>
+      </c>
+      <c r="D22">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="E22">
+        <v>5.1139999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>20.63053</v>
+      </c>
+      <c r="G22">
+        <v>15.8238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4.383</v>
+      </c>
+      <c r="B23">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C23">
+        <v>20.956</v>
+      </c>
+      <c r="D23">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="E23">
+        <v>5.3069999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>20.95627</v>
+      </c>
+      <c r="G23">
+        <v>15.8527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="B24">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C24">
+        <v>21.177</v>
+      </c>
+      <c r="D24">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E24">
+        <v>5.5730000000000002E-2</v>
+      </c>
+      <c r="F24">
+        <v>21.17661</v>
+      </c>
+      <c r="G24">
+        <v>15.892799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4.782</v>
+      </c>
+      <c r="B25">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C25">
+        <v>21.513000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E25">
+        <v>5.8520000000000003E-2</v>
+      </c>
+      <c r="F25">
+        <v>21.512630000000001</v>
+      </c>
+      <c r="G25">
+        <v>15.934799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4.9809999999999999</v>
+      </c>
+      <c r="B26">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C26">
+        <v>21.805</v>
+      </c>
+      <c r="D26">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="E26">
+        <v>6.1780000000000002E-2</v>
+      </c>
+      <c r="F26">
+        <v>21.805019999999999</v>
+      </c>
+      <c r="G26">
+        <v>15.9838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5.18</v>
+      </c>
+      <c r="B27">
+        <v>24.398</v>
+      </c>
+      <c r="C27">
+        <v>21.960999999999999</v>
+      </c>
+      <c r="D27">
+        <v>1.0142</v>
+      </c>
+      <c r="E27">
+        <v>6.3789999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>21.960940000000001</v>
+      </c>
+      <c r="G27">
+        <v>16.014199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="B28">
+        <v>24.398</v>
+      </c>
+      <c r="C28">
+        <v>22.196000000000002</v>
+      </c>
+      <c r="D28">
+        <v>1.0643</v>
+      </c>
+      <c r="E28">
+        <v>6.7119999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>22.196179999999998</v>
+      </c>
+      <c r="G28">
+        <v>16.064299999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="B29">
+        <v>24.398</v>
+      </c>
+      <c r="C29">
+        <v>22.337</v>
+      </c>
+      <c r="D29">
+        <v>1.0949</v>
+      </c>
+      <c r="E29">
+        <v>6.9159999999999999E-2</v>
+      </c>
+      <c r="F29">
+        <v>22.33745</v>
+      </c>
+      <c r="G29">
+        <v>16.094899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="B30">
+        <v>24.398</v>
+      </c>
+      <c r="C30">
+        <v>22.513999999999999</v>
+      </c>
+      <c r="D30">
+        <v>1.1338999999999999</v>
+      </c>
+      <c r="E30">
+        <v>7.1749999999999994E-2</v>
+      </c>
+      <c r="F30">
+        <v>22.513719999999999</v>
+      </c>
+      <c r="G30">
+        <v>16.133900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="B31">
+        <v>24.398</v>
+      </c>
+      <c r="C31">
+        <v>22.678000000000001</v>
+      </c>
+      <c r="D31">
+        <v>1.1808000000000001</v>
+      </c>
+      <c r="E31">
+        <v>7.4859999999999996E-2</v>
+      </c>
+      <c r="F31">
+        <v>22.67793</v>
+      </c>
+      <c r="G31">
+        <v>16.180800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="B32">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C32">
+        <v>22.827000000000002</v>
+      </c>
+      <c r="D32">
+        <v>1.2102999999999999</v>
+      </c>
+      <c r="E32">
+        <v>7.6819999999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>22.827069999999999</v>
+      </c>
+      <c r="G32">
+        <v>16.2103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>6.375</v>
+      </c>
+      <c r="B33">
+        <v>24.398</v>
+      </c>
+      <c r="C33">
+        <v>22.971</v>
+      </c>
+      <c r="D33">
+        <v>1.2488999999999999</v>
+      </c>
+      <c r="E33">
+        <v>7.9380000000000006E-2</v>
+      </c>
+      <c r="F33">
+        <v>22.971</v>
+      </c>
+      <c r="G33">
+        <v>16.248899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>6.5750000000000002</v>
+      </c>
+      <c r="B34">
+        <v>24.398</v>
+      </c>
+      <c r="C34">
+        <v>23.099</v>
+      </c>
+      <c r="D34">
+        <v>1.2847</v>
+      </c>
+      <c r="E34">
+        <v>8.1759999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>23.098839999999999</v>
+      </c>
+      <c r="G34">
+        <v>16.284700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>6.774</v>
+      </c>
+      <c r="B35">
+        <v>24.398</v>
+      </c>
+      <c r="C35">
+        <v>23.215</v>
+      </c>
+      <c r="D35">
+        <v>1.3219000000000001</v>
+      </c>
+      <c r="E35">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F35">
+        <v>23.21452</v>
+      </c>
+      <c r="G35">
+        <v>16.321899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>6.9729999999999999</v>
+      </c>
+      <c r="B36">
+        <v>24.398</v>
+      </c>
+      <c r="C36">
+        <v>23.332999999999998</v>
+      </c>
+      <c r="D36">
+        <v>1.3613999999999999</v>
+      </c>
+      <c r="E36">
+        <v>8.6860000000000007E-2</v>
+      </c>
+      <c r="F36">
+        <v>23.333130000000001</v>
+      </c>
+      <c r="G36">
+        <v>16.3614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>7.1719999999999997</v>
+      </c>
+      <c r="B37">
+        <v>24.398</v>
+      </c>
+      <c r="C37">
+        <v>23.459</v>
+      </c>
+      <c r="D37">
+        <v>1.411</v>
+      </c>
+      <c r="E37">
+        <v>9.0160000000000004E-2</v>
+      </c>
+      <c r="F37">
+        <v>23.458590000000001</v>
+      </c>
+      <c r="G37">
+        <v>16.411000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>7.3719999999999999</v>
+      </c>
+      <c r="B38">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C38">
+        <v>23.581</v>
+      </c>
+      <c r="D38">
+        <v>1.4400999999999999</v>
+      </c>
+      <c r="E38">
+        <v>9.2090000000000005E-2</v>
+      </c>
+      <c r="F38">
+        <v>23.580670000000001</v>
+      </c>
+      <c r="G38">
+        <v>16.440100000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>7.5709999999999997</v>
+      </c>
+      <c r="B39">
+        <v>24.398</v>
+      </c>
+      <c r="C39">
+        <v>23.689</v>
+      </c>
+      <c r="D39">
+        <v>1.4805999999999999</v>
+      </c>
+      <c r="E39">
+        <v>9.4780000000000003E-2</v>
+      </c>
+      <c r="F39">
+        <v>23.689119999999999</v>
+      </c>
+      <c r="G39">
+        <v>16.480599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>7.77</v>
+      </c>
+      <c r="B40">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C40">
+        <v>23.792999999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.5230999999999999</v>
+      </c>
+      <c r="E40">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="F40">
+        <v>23.79325</v>
+      </c>
+      <c r="G40">
+        <v>16.523099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>7.9690000000000003</v>
+      </c>
+      <c r="B41">
+        <v>24.398</v>
+      </c>
+      <c r="C41">
+        <v>23.888999999999999</v>
+      </c>
+      <c r="D41">
+        <v>1.5631999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.10027</v>
+      </c>
+      <c r="F41">
+        <v>23.888549999999999</v>
+      </c>
+      <c r="G41">
+        <v>16.563199999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>8.1679999999999993</v>
+      </c>
+      <c r="B42">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C42">
+        <v>23.975000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1.6044</v>
+      </c>
+      <c r="E42">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F42">
+        <v>23.974869999999999</v>
+      </c>
+      <c r="G42">
+        <v>16.604399999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>8.3680000000000003</v>
+      </c>
+      <c r="B43">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C43">
+        <v>24.056999999999999</v>
+      </c>
+      <c r="D43">
+        <v>1.6452</v>
+      </c>
+      <c r="E43">
+        <v>0.10571</v>
+      </c>
+      <c r="F43">
+        <v>24.05688</v>
+      </c>
+      <c r="G43">
+        <v>16.645199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>8.5670000000000002</v>
+      </c>
+      <c r="B44">
+        <v>24.398</v>
+      </c>
+      <c r="C44">
+        <v>24.181999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1.6982999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.10924</v>
+      </c>
+      <c r="F44">
+        <v>24.181539999999998</v>
+      </c>
+      <c r="G44">
+        <v>16.6983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>8.766</v>
+      </c>
+      <c r="B45">
+        <v>24.398</v>
+      </c>
+      <c r="C45">
+        <v>24.259</v>
+      </c>
+      <c r="D45">
+        <v>1.7285999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.11125</v>
+      </c>
+      <c r="F45">
+        <v>24.258520000000001</v>
+      </c>
+      <c r="G45">
+        <v>16.7286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="B46">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="C46">
+        <v>24.359000000000002</v>
+      </c>
+      <c r="D46">
+        <v>1.7677</v>
+      </c>
+      <c r="E46">
+        <v>0.11385000000000001</v>
+      </c>
+      <c r="F46">
+        <v>24.358910000000002</v>
+      </c>
+      <c r="G46">
+        <v>16.767700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>9.1649999999999991</v>
+      </c>
+      <c r="B47">
+        <v>24.398</v>
+      </c>
+      <c r="C47">
+        <v>24.475999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1.8179000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.11718000000000001</v>
+      </c>
+      <c r="F47">
+        <v>24.476489999999998</v>
+      </c>
+      <c r="G47">
+        <v>16.817900000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>9.3640000000000008</v>
+      </c>
+      <c r="B48">
+        <v>24.398</v>
+      </c>
+      <c r="C48">
+        <v>24.545000000000002</v>
+      </c>
+      <c r="D48">
+        <v>1.8474999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.11915000000000001</v>
+      </c>
+      <c r="F48">
+        <v>24.545349999999999</v>
+      </c>
+      <c r="G48">
+        <v>16.8475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>9.5630000000000006</v>
+      </c>
+      <c r="B49">
+        <v>24.398</v>
+      </c>
+      <c r="C49">
+        <v>24.645</v>
+      </c>
+      <c r="D49">
+        <v>1.8935999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.12221</v>
+      </c>
+      <c r="F49">
+        <v>24.645019999999999</v>
+      </c>
+      <c r="G49">
+        <v>16.893599999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>9.7620000000000005</v>
+      </c>
+      <c r="B50">
+        <v>24.398</v>
+      </c>
+      <c r="C50">
+        <v>24.702000000000002</v>
+      </c>
+      <c r="D50">
+        <v>1.9221999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.12411999999999999</v>
+      </c>
+      <c r="F50">
+        <v>24.702249999999999</v>
+      </c>
+      <c r="G50">
+        <v>16.9222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="B51">
+        <v>24.398</v>
+      </c>
+      <c r="C51">
+        <v>24.809000000000001</v>
+      </c>
+      <c r="D51">
+        <v>1.9714</v>
+      </c>
+      <c r="E51">
+        <v>0.12737999999999999</v>
+      </c>
+      <c r="F51">
+        <v>24.808679999999999</v>
+      </c>
+      <c r="G51">
+        <v>16.971399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10.161</v>
+      </c>
+      <c r="B52">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C52">
+        <v>24.878</v>
+      </c>
+      <c r="D52">
+        <v>2.0009000000000001</v>
+      </c>
+      <c r="E52">
+        <v>0.12934000000000001</v>
+      </c>
+      <c r="F52">
+        <v>24.87801</v>
+      </c>
+      <c r="G52">
+        <v>17.000900000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10.36</v>
+      </c>
+      <c r="B53">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C53">
+        <v>24.986999999999998</v>
+      </c>
+      <c r="D53">
+        <v>2.0493000000000001</v>
+      </c>
+      <c r="E53">
+        <v>0.13256000000000001</v>
+      </c>
+      <c r="F53">
+        <v>24.987030000000001</v>
+      </c>
+      <c r="G53">
+        <v>17.049299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>10.558999999999999</v>
+      </c>
+      <c r="B54">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C54">
+        <v>25.048999999999999</v>
+      </c>
+      <c r="D54">
+        <v>2.0792999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.13455</v>
+      </c>
+      <c r="F54">
+        <v>25.049240000000001</v>
+      </c>
+      <c r="G54">
+        <v>17.0793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>10.757999999999999</v>
+      </c>
+      <c r="B55">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="C55">
+        <v>25.132999999999999</v>
+      </c>
+      <c r="D55">
+        <v>2.1208999999999998</v>
+      </c>
+      <c r="E55">
+        <v>0.13730999999999999</v>
+      </c>
+      <c r="F55">
+        <v>25.132850000000001</v>
+      </c>
+      <c r="G55">
+        <v>17.120899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>10.958</v>
+      </c>
+      <c r="B56">
+        <v>24.4</v>
+      </c>
+      <c r="C56">
+        <v>25.234999999999999</v>
+      </c>
+      <c r="D56">
+        <v>2.1711999999999998</v>
+      </c>
+      <c r="E56">
+        <v>0.14065</v>
+      </c>
+      <c r="F56">
+        <v>25.23545</v>
+      </c>
+      <c r="G56">
+        <v>17.171199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>11.157</v>
+      </c>
+      <c r="B57">
+        <v>24.401</v>
+      </c>
+      <c r="C57">
+        <v>25.286000000000001</v>
+      </c>
+      <c r="D57">
+        <v>2.2021000000000002</v>
+      </c>
+      <c r="E57">
+        <v>0.14271</v>
+      </c>
+      <c r="F57">
+        <v>25.285990000000002</v>
+      </c>
+      <c r="G57">
+        <v>17.202100000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>11.356</v>
+      </c>
+      <c r="B58">
+        <v>24.401</v>
+      </c>
+      <c r="C58">
+        <v>25.353999999999999</v>
+      </c>
+      <c r="D58">
+        <v>2.2431000000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.14543</v>
+      </c>
+      <c r="F58">
+        <v>25.354120000000002</v>
+      </c>
+      <c r="G58">
+        <v>17.243099999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>11.555</v>
+      </c>
+      <c r="B59">
+        <v>24.402000000000001</v>
+      </c>
+      <c r="C59">
+        <v>25.44</v>
+      </c>
+      <c r="D59">
+        <v>2.2846000000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="F59">
+        <v>25.44042</v>
+      </c>
+      <c r="G59">
+        <v>17.284600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="B60">
+        <v>24.402000000000001</v>
+      </c>
+      <c r="C60">
+        <v>25.550999999999998</v>
+      </c>
+      <c r="D60">
+        <v>2.3344999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.1515</v>
+      </c>
+      <c r="F60">
+        <v>25.551220000000001</v>
+      </c>
+      <c r="G60">
+        <v>17.334499999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>11.954000000000001</v>
+      </c>
+      <c r="B61">
+        <v>24.402999999999999</v>
+      </c>
+      <c r="C61">
+        <v>25.635999999999999</v>
+      </c>
+      <c r="D61">
+        <v>2.3734000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.15409</v>
+      </c>
+      <c r="F61">
+        <v>25.636479999999999</v>
+      </c>
+      <c r="G61">
+        <v>17.3734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>12.153</v>
+      </c>
+      <c r="B62">
+        <v>24.404</v>
+      </c>
+      <c r="C62">
+        <v>25.699000000000002</v>
+      </c>
+      <c r="D62">
+        <v>2.4039000000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.15611</v>
+      </c>
+      <c r="F62">
+        <v>25.699369999999998</v>
+      </c>
+      <c r="G62">
+        <v>17.4039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>12.352</v>
+      </c>
+      <c r="B63">
+        <v>24.404</v>
+      </c>
+      <c r="C63">
+        <v>25.786000000000001</v>
+      </c>
+      <c r="D63">
+        <v>2.4441000000000002</v>
+      </c>
+      <c r="E63">
+        <v>0.15878</v>
+      </c>
+      <c r="F63">
+        <v>25.785969999999999</v>
+      </c>
+      <c r="G63">
+        <v>17.444099999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>12.551</v>
+      </c>
+      <c r="B64">
+        <v>24.405000000000001</v>
+      </c>
+      <c r="C64">
+        <v>25.878</v>
+      </c>
+      <c r="D64">
+        <v>2.4914999999999998</v>
+      </c>
+      <c r="E64">
+        <v>0.16192999999999999</v>
+      </c>
+      <c r="F64">
+        <v>25.878029999999999</v>
+      </c>
+      <c r="G64">
+        <v>17.491499999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>12.750999999999999</v>
+      </c>
+      <c r="B65">
+        <v>24.405000000000001</v>
+      </c>
+      <c r="C65">
+        <v>25.927</v>
+      </c>
+      <c r="D65">
+        <v>2.5205000000000002</v>
+      </c>
+      <c r="E65">
+        <v>0.16386000000000001</v>
+      </c>
+      <c r="F65">
+        <v>25.927389999999999</v>
+      </c>
+      <c r="G65">
+        <v>17.520499999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>12.95</v>
+      </c>
+      <c r="B66">
+        <v>24.405999999999999</v>
+      </c>
+      <c r="C66">
+        <v>26.001999999999999</v>
+      </c>
+      <c r="D66">
+        <v>2.5613999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.16657</v>
+      </c>
+      <c r="F66">
+        <v>26.00187</v>
+      </c>
+      <c r="G66">
+        <v>17.561399999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>13.148999999999999</v>
+      </c>
+      <c r="B67">
+        <v>24.407</v>
+      </c>
+      <c r="C67">
+        <v>26.111999999999998</v>
+      </c>
+      <c r="D67">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="E67">
+        <v>0.16927</v>
+      </c>
+      <c r="F67">
+        <v>26.11242</v>
+      </c>
+      <c r="G67">
+        <v>17.602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="B68">
+        <v>24.408999999999999</v>
+      </c>
+      <c r="C68">
+        <v>26.18</v>
+      </c>
+      <c r="D68">
+        <v>2.6415999999999999</v>
+      </c>
+      <c r="E68">
+        <v>0.1719</v>
+      </c>
+      <c r="F68">
+        <v>26.1797</v>
+      </c>
+      <c r="G68">
+        <v>17.6416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>13.548</v>
+      </c>
+      <c r="B69">
+        <v>24.41</v>
+      </c>
+      <c r="C69">
+        <v>26.279</v>
+      </c>
+      <c r="D69">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="E69">
+        <v>0.17465</v>
+      </c>
+      <c r="F69">
+        <v>26.278960000000001</v>
+      </c>
+      <c r="G69">
+        <v>17.683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>13.747</v>
+      </c>
+      <c r="B70">
+        <v>24.411000000000001</v>
+      </c>
+      <c r="C70">
+        <v>26.341999999999999</v>
+      </c>
+      <c r="D70">
+        <v>2.7263999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.17754</v>
+      </c>
+      <c r="F70">
+        <v>26.342479999999998</v>
+      </c>
+      <c r="G70">
+        <v>17.726400000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>13.946</v>
+      </c>
+      <c r="B71">
+        <v>24.411000000000001</v>
+      </c>
+      <c r="C71">
+        <v>26.420999999999999</v>
+      </c>
+      <c r="D71">
+        <v>2.7677</v>
+      </c>
+      <c r="E71">
+        <v>0.18028</v>
+      </c>
+      <c r="F71">
+        <v>26.420719999999999</v>
+      </c>
+      <c r="G71">
+        <v>17.767700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>14.145</v>
+      </c>
+      <c r="B72">
+        <v>24.414000000000001</v>
+      </c>
+      <c r="C72">
+        <v>26.507000000000001</v>
+      </c>
+      <c r="D72">
+        <v>2.8203</v>
+      </c>
+      <c r="E72">
+        <v>0.18376999999999999</v>
+      </c>
+      <c r="F72">
+        <v>26.50667</v>
+      </c>
+      <c r="G72">
+        <v>17.8203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>14.345000000000001</v>
+      </c>
+      <c r="B73">
+        <v>24.414000000000001</v>
+      </c>
+      <c r="C73">
+        <v>26.553000000000001</v>
+      </c>
+      <c r="D73">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.18587999999999999</v>
+      </c>
+      <c r="F73">
+        <v>26.553090000000001</v>
+      </c>
+      <c r="G73">
+        <v>17.852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>14.544</v>
+      </c>
+      <c r="B74">
+        <v>24.416</v>
+      </c>
+      <c r="C74">
+        <v>26.661999999999999</v>
+      </c>
+      <c r="D74">
+        <v>2.9056000000000002</v>
+      </c>
+      <c r="E74">
+        <v>0.18944</v>
+      </c>
+      <c r="F74">
+        <v>26.662220000000001</v>
+      </c>
+      <c r="G74">
+        <v>17.9056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>14.743</v>
+      </c>
+      <c r="B75">
+        <v>24.417000000000002</v>
+      </c>
+      <c r="C75">
+        <v>26.756</v>
+      </c>
+      <c r="D75">
+        <v>2.9361999999999999</v>
+      </c>
+      <c r="E75">
+        <v>0.19147</v>
+      </c>
+      <c r="F75">
+        <v>26.755759999999999</v>
+      </c>
+      <c r="G75">
+        <v>17.936199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>14.942</v>
+      </c>
+      <c r="B76">
+        <v>24.417999999999999</v>
+      </c>
+      <c r="C76">
+        <v>26.824000000000002</v>
+      </c>
+      <c r="D76">
+        <v>2.9756</v>
+      </c>
+      <c r="E76">
+        <v>0.19409000000000001</v>
+      </c>
+      <c r="F76">
+        <v>26.82405</v>
+      </c>
+      <c r="G76">
+        <v>17.9756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>15.141</v>
+      </c>
+      <c r="B77">
+        <v>24.42</v>
+      </c>
+      <c r="C77">
+        <v>26.934000000000001</v>
+      </c>
+      <c r="D77">
+        <v>3.0266999999999999</v>
+      </c>
+      <c r="E77">
+        <v>0.19747999999999999</v>
+      </c>
+      <c r="F77">
+        <v>26.93393</v>
+      </c>
+      <c r="G77">
+        <v>18.026700000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>15.340999999999999</v>
+      </c>
+      <c r="B78">
+        <v>24.422000000000001</v>
+      </c>
+      <c r="C78">
+        <v>27.021000000000001</v>
+      </c>
+      <c r="D78">
+        <v>3.0564</v>
+      </c>
+      <c r="E78">
+        <v>0.19946</v>
+      </c>
+      <c r="F78">
+        <v>27.021170000000001</v>
+      </c>
+      <c r="G78">
+        <v>18.0564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>15.54</v>
+      </c>
+      <c r="B79">
+        <v>24.422999999999998</v>
+      </c>
+      <c r="C79">
+        <v>27.08</v>
+      </c>
+      <c r="D79">
+        <v>3.0939000000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.20194999999999999</v>
+      </c>
+      <c r="F79">
+        <v>27.079899999999999</v>
+      </c>
+      <c r="G79">
+        <v>18.093900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>15.739000000000001</v>
+      </c>
+      <c r="B80">
+        <v>24.425000000000001</v>
+      </c>
+      <c r="C80">
+        <v>27.167999999999999</v>
+      </c>
+      <c r="D80">
+        <v>3.1421000000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.20515</v>
+      </c>
+      <c r="F80">
+        <v>27.168389999999999</v>
+      </c>
+      <c r="G80">
+        <v>18.142099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>15.938000000000001</v>
+      </c>
+      <c r="B81">
+        <v>24.427</v>
+      </c>
+      <c r="C81">
+        <v>27.228000000000002</v>
+      </c>
+      <c r="D81">
+        <v>3.1726999999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.20718</v>
+      </c>
+      <c r="F81">
+        <v>27.22833</v>
+      </c>
+      <c r="G81">
+        <v>18.172699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>16.138000000000002</v>
+      </c>
+      <c r="B82">
+        <v>24.428999999999998</v>
+      </c>
+      <c r="C82">
+        <v>27.347000000000001</v>
+      </c>
+      <c r="D82">
+        <v>3.2225999999999999</v>
+      </c>
+      <c r="E82">
+        <v>0.21049000000000001</v>
+      </c>
+      <c r="F82">
+        <v>27.346889999999998</v>
+      </c>
+      <c r="G82">
+        <v>18.2226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>16.337</v>
+      </c>
+      <c r="B83">
+        <v>24.431000000000001</v>
+      </c>
+      <c r="C83">
+        <v>27.445</v>
+      </c>
+      <c r="D83">
+        <v>3.2517</v>
+      </c>
+      <c r="E83">
+        <v>0.21243000000000001</v>
+      </c>
+      <c r="F83">
+        <v>27.444759999999999</v>
+      </c>
+      <c r="G83">
+        <v>18.2517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>16.536000000000001</v>
+      </c>
+      <c r="B84">
+        <v>24.431999999999999</v>
+      </c>
+      <c r="C84">
+        <v>27.527000000000001</v>
+      </c>
+      <c r="D84">
+        <v>3.3029000000000002</v>
+      </c>
+      <c r="E84">
+        <v>0.21582999999999999</v>
+      </c>
+      <c r="F84">
+        <v>27.526769999999999</v>
+      </c>
+      <c r="G84">
+        <v>18.302900000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>16.734999999999999</v>
+      </c>
+      <c r="B85">
+        <v>24.434000000000001</v>
+      </c>
+      <c r="C85">
+        <v>27.614999999999998</v>
+      </c>
+      <c r="D85">
+        <v>3.3346</v>
+      </c>
+      <c r="E85">
+        <v>0.21793000000000001</v>
+      </c>
+      <c r="F85">
+        <v>27.615020000000001</v>
+      </c>
+      <c r="G85">
+        <v>18.334599999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>16.934999999999999</v>
+      </c>
+      <c r="B86">
+        <v>24.437000000000001</v>
+      </c>
+      <c r="C86">
+        <v>27.675999999999998</v>
+      </c>
+      <c r="D86">
+        <v>3.3744999999999998</v>
+      </c>
+      <c r="E86">
+        <v>0.22059000000000001</v>
+      </c>
+      <c r="F86">
+        <v>27.676210000000001</v>
+      </c>
+      <c r="G86">
+        <v>18.374500000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>17.134</v>
+      </c>
+      <c r="B87">
+        <v>24.439</v>
+      </c>
+      <c r="C87">
+        <v>27.77</v>
+      </c>
+      <c r="D87">
+        <v>3.4154</v>
+      </c>
+      <c r="E87">
+        <v>0.2233</v>
+      </c>
+      <c r="F87">
+        <v>27.76952</v>
+      </c>
+      <c r="G87">
+        <v>18.415400000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>17.332999999999998</v>
+      </c>
+      <c r="B88">
+        <v>24.440999999999999</v>
+      </c>
+      <c r="C88">
+        <v>27.84</v>
+      </c>
+      <c r="D88">
+        <v>3.456</v>
+      </c>
+      <c r="E88">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F88">
+        <v>27.8399</v>
+      </c>
+      <c r="G88">
+        <v>18.456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>17.532</v>
+      </c>
+      <c r="B89">
+        <v>24.443000000000001</v>
+      </c>
+      <c r="C89">
+        <v>27.91</v>
+      </c>
+      <c r="D89">
+        <v>3.4977</v>
+      </c>
+      <c r="E89">
+        <v>0.22877</v>
+      </c>
+      <c r="F89">
+        <v>27.9099</v>
+      </c>
+      <c r="G89">
+        <v>18.497699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>17.731000000000002</v>
+      </c>
+      <c r="B90">
+        <v>24.446000000000002</v>
+      </c>
+      <c r="C90">
+        <v>28.033999999999999</v>
+      </c>
+      <c r="D90">
+        <v>3.5468999999999999</v>
+      </c>
+      <c r="E90">
+        <v>0.23204</v>
+      </c>
+      <c r="F90">
+        <v>28.034120000000001</v>
+      </c>
+      <c r="G90">
+        <v>18.546900000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>17.931000000000001</v>
+      </c>
+      <c r="B91">
+        <v>24.448</v>
+      </c>
+      <c r="C91">
+        <v>28.13</v>
+      </c>
+      <c r="D91">
+        <v>3.5754000000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.23393</v>
+      </c>
+      <c r="F91">
+        <v>28.12978</v>
+      </c>
+      <c r="G91">
+        <v>18.575399999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>18.13</v>
+      </c>
+      <c r="B92">
+        <v>24.45</v>
+      </c>
+      <c r="C92">
+        <v>28.196999999999999</v>
+      </c>
+      <c r="D92">
+        <v>3.6151</v>
+      </c>
+      <c r="E92">
+        <v>0.23657</v>
+      </c>
+      <c r="F92">
+        <v>28.196860000000001</v>
+      </c>
+      <c r="G92">
+        <v>18.615100000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>18.329000000000001</v>
+      </c>
+      <c r="B93">
+        <v>24.452999999999999</v>
+      </c>
+      <c r="C93">
+        <v>28.315000000000001</v>
+      </c>
+      <c r="D93">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="E93">
+        <v>0.23915</v>
+      </c>
+      <c r="F93">
+        <v>28.315280000000001</v>
+      </c>
+      <c r="G93">
+        <v>18.654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>18.527999999999999</v>
+      </c>
+      <c r="B94">
+        <v>24.456</v>
+      </c>
+      <c r="C94">
+        <v>28.396999999999998</v>
+      </c>
+      <c r="D94">
+        <v>3.7</v>
+      </c>
+      <c r="E94">
+        <v>0.24221000000000001</v>
+      </c>
+      <c r="F94">
+        <v>28.397120000000001</v>
+      </c>
+      <c r="G94">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>18.728000000000002</v>
+      </c>
+      <c r="B95">
+        <v>24.457999999999998</v>
+      </c>
+      <c r="C95">
+        <v>28.469000000000001</v>
+      </c>
+      <c r="D95">
+        <v>3.7277999999999998</v>
+      </c>
+      <c r="E95">
+        <v>0.24406</v>
+      </c>
+      <c r="F95">
+        <v>28.46894</v>
+      </c>
+      <c r="G95">
+        <v>18.727799999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>18.927</v>
+      </c>
+      <c r="B96">
+        <v>24.460999999999999</v>
+      </c>
+      <c r="C96">
+        <v>28.587</v>
+      </c>
+      <c r="D96">
+        <v>3.7778</v>
+      </c>
+      <c r="E96">
+        <v>0.24737000000000001</v>
+      </c>
+      <c r="F96">
+        <v>28.587240000000001</v>
+      </c>
+      <c r="G96">
+        <v>18.777799999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>19.126000000000001</v>
+      </c>
+      <c r="B97">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="C97">
+        <v>28.670999999999999</v>
+      </c>
+      <c r="D97">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="E97">
+        <v>0.24998000000000001</v>
+      </c>
+      <c r="F97">
+        <v>28.6708</v>
+      </c>
+      <c r="G97">
+        <v>18.817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>19.324999999999999</v>
+      </c>
+      <c r="B98">
+        <v>24.466000000000001</v>
+      </c>
+      <c r="C98">
+        <v>28.806000000000001</v>
+      </c>
+      <c r="D98">
+        <v>3.8557999999999999</v>
+      </c>
+      <c r="E98">
+        <v>0.25256000000000001</v>
+      </c>
+      <c r="F98">
+        <v>28.806180000000001</v>
+      </c>
+      <c r="G98">
+        <v>18.855799999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>19.524999999999999</v>
+      </c>
+      <c r="B99">
+        <v>24.468</v>
+      </c>
+      <c r="C99">
+        <v>28.873999999999999</v>
+      </c>
+      <c r="D99">
+        <v>3.8864999999999998</v>
+      </c>
+      <c r="E99">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="F99">
+        <v>28.87416</v>
+      </c>
+      <c r="G99">
+        <v>18.886500000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>19.724</v>
+      </c>
+      <c r="B100">
+        <v>24.471</v>
+      </c>
+      <c r="C100">
+        <v>28.962</v>
+      </c>
+      <c r="D100">
+        <v>3.9285999999999999</v>
+      </c>
+      <c r="E100">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="F100">
+        <v>28.96217</v>
+      </c>
+      <c r="G100">
+        <v>18.928599999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>19.922999999999998</v>
+      </c>
+      <c r="B101">
+        <v>24.475000000000001</v>
+      </c>
+      <c r="C101">
+        <v>29.042000000000002</v>
+      </c>
+      <c r="D101">
+        <v>3.9784000000000002</v>
+      </c>
+      <c r="E101">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="F101">
+        <v>29.04196</v>
+      </c>
+      <c r="G101">
+        <v>18.978400000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>20.122</v>
+      </c>
+      <c r="B102">
+        <v>24.477</v>
+      </c>
+      <c r="C102">
+        <v>29.114000000000001</v>
+      </c>
+      <c r="D102">
+        <v>4.0092999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.26274999999999998</v>
+      </c>
+      <c r="F102">
+        <v>29.113849999999999</v>
+      </c>
+      <c r="G102">
+        <v>19.0093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>20.321000000000002</v>
+      </c>
+      <c r="B103">
+        <v>24.48</v>
+      </c>
+      <c r="C103">
+        <v>29.184000000000001</v>
+      </c>
+      <c r="D103">
+        <v>4.0498000000000003</v>
+      </c>
+      <c r="E103">
+        <v>0.26544000000000001</v>
+      </c>
+      <c r="F103">
+        <v>29.184270000000001</v>
+      </c>
+      <c r="G103">
+        <v>19.049800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>20.521000000000001</v>
+      </c>
+      <c r="B104">
+        <v>24.484000000000002</v>
+      </c>
+      <c r="C104">
+        <v>29.306999999999999</v>
+      </c>
+      <c r="D104">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="E104">
+        <v>0.26890999999999998</v>
+      </c>
+      <c r="F104">
+        <v>29.306629999999998</v>
+      </c>
+      <c r="G104">
+        <v>19.102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>20.72</v>
+      </c>
+      <c r="B105">
+        <v>24.486999999999998</v>
+      </c>
+      <c r="C105">
+        <v>29.388000000000002</v>
+      </c>
+      <c r="D105">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="E105">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="F105">
+        <v>29.38768</v>
+      </c>
+      <c r="G105">
+        <v>19.132000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>20.919</v>
+      </c>
+      <c r="B106">
+        <v>24.489000000000001</v>
+      </c>
+      <c r="C106">
+        <v>29.492999999999999</v>
+      </c>
+      <c r="D106">
+        <v>4.1707000000000001</v>
+      </c>
+      <c r="E106">
+        <v>0.27348</v>
+      </c>
+      <c r="F106">
+        <v>29.493410000000001</v>
+      </c>
+      <c r="G106">
+        <v>19.1707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>21.117999999999999</v>
+      </c>
+      <c r="B107">
+        <v>24.492000000000001</v>
+      </c>
+      <c r="C107">
+        <v>29.585999999999999</v>
+      </c>
+      <c r="D107">
+        <v>4.2108999999999996</v>
+      </c>
+      <c r="E107">
+        <v>0.27615000000000001</v>
+      </c>
+      <c r="F107">
+        <v>29.585730000000002</v>
+      </c>
+      <c r="G107">
+        <v>19.210899999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>21.318000000000001</v>
+      </c>
+      <c r="B108">
+        <v>24.495999999999999</v>
+      </c>
+      <c r="C108">
+        <v>29.68</v>
+      </c>
+      <c r="D108">
+        <v>4.2506000000000004</v>
+      </c>
+      <c r="E108">
+        <v>0.27877999999999997</v>
+      </c>
+      <c r="F108">
+        <v>29.680440000000001</v>
+      </c>
+      <c r="G108">
+        <v>19.250599999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>21.516999999999999</v>
+      </c>
+      <c r="B109">
+        <v>24.498999999999999</v>
+      </c>
+      <c r="C109">
+        <v>29.762</v>
+      </c>
+      <c r="D109">
+        <v>4.2876000000000003</v>
+      </c>
+      <c r="E109">
+        <v>0.28123999999999999</v>
+      </c>
+      <c r="F109">
+        <v>29.762149999999998</v>
+      </c>
+      <c r="G109">
+        <v>19.287600000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>21.716000000000001</v>
+      </c>
+      <c r="B110">
+        <v>24.501999999999999</v>
+      </c>
+      <c r="C110">
+        <v>29.835999999999999</v>
+      </c>
+      <c r="D110">
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="E110">
+        <v>0.2838</v>
+      </c>
+      <c r="F110">
+        <v>29.835809999999999</v>
+      </c>
+      <c r="G110">
+        <v>19.3261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>21.914999999999999</v>
+      </c>
+      <c r="B111">
+        <v>24.506</v>
+      </c>
+      <c r="C111">
+        <v>29.952999999999999</v>
+      </c>
+      <c r="D111">
+        <v>4.3764000000000003</v>
+      </c>
+      <c r="E111">
+        <v>0.28714000000000001</v>
+      </c>
+      <c r="F111">
+        <v>29.953199999999999</v>
+      </c>
+      <c r="G111">
+        <v>19.3764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>22.114999999999998</v>
+      </c>
+      <c r="B112">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="C112">
+        <v>30.036000000000001</v>
+      </c>
+      <c r="D112">
+        <v>4.4063999999999997</v>
+      </c>
+      <c r="E112">
+        <v>0.28913</v>
+      </c>
+      <c r="F112">
+        <v>30.036180000000002</v>
+      </c>
+      <c r="G112">
+        <v>19.406400000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>22.314</v>
+      </c>
+      <c r="B113">
+        <v>24.512</v>
+      </c>
+      <c r="C113">
+        <v>30.143000000000001</v>
+      </c>
+      <c r="D113">
+        <v>4.4451000000000001</v>
+      </c>
+      <c r="E113">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="F113">
+        <v>30.143049999999999</v>
+      </c>
+      <c r="G113">
+        <v>19.4451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>22.513000000000002</v>
+      </c>
+      <c r="B114">
+        <v>24.515999999999998</v>
+      </c>
+      <c r="C114">
+        <v>30.234999999999999</v>
+      </c>
+      <c r="D114">
+        <v>4.4851999999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.29437000000000002</v>
+      </c>
+      <c r="F114">
+        <v>30.23451</v>
+      </c>
+      <c r="G114">
+        <v>19.485199999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>22.712</v>
+      </c>
+      <c r="B115">
+        <v>24.518000000000001</v>
+      </c>
+      <c r="C115">
+        <v>30.33</v>
+      </c>
+      <c r="D115">
+        <v>4.5271999999999997</v>
+      </c>
+      <c r="E115">
+        <v>0.29715999999999998</v>
+      </c>
+      <c r="F115">
+        <v>30.329609999999999</v>
+      </c>
+      <c r="G115">
+        <v>19.527200000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>22.911000000000001</v>
+      </c>
+      <c r="B116">
+        <v>24.523</v>
+      </c>
+      <c r="C116">
+        <v>30.440999999999999</v>
+      </c>
+      <c r="D116">
+        <v>4.5766999999999998</v>
+      </c>
+      <c r="E116">
+        <v>0.30044999999999999</v>
+      </c>
+      <c r="F116">
+        <v>30.44134</v>
+      </c>
+      <c r="G116">
+        <v>19.576699999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>23.111000000000001</v>
+      </c>
+      <c r="B117">
+        <v>24.526</v>
+      </c>
+      <c r="C117">
+        <v>30.524999999999999</v>
+      </c>
+      <c r="D117">
+        <v>4.6172000000000004</v>
+      </c>
+      <c r="E117">
+        <v>0.30314000000000002</v>
+      </c>
+      <c r="F117">
+        <v>30.524519999999999</v>
+      </c>
+      <c r="G117">
+        <v>19.6172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>23.31</v>
+      </c>
+      <c r="B118">
+        <v>24.529</v>
+      </c>
+      <c r="C118">
+        <v>30.585000000000001</v>
+      </c>
+      <c r="D118">
+        <v>4.6474000000000002</v>
+      </c>
+      <c r="E118">
+        <v>0.30514000000000002</v>
+      </c>
+      <c r="F118">
+        <v>30.58548</v>
+      </c>
+      <c r="G118">
+        <v>19.647400000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>23.509</v>
+      </c>
+      <c r="B119">
+        <v>24.533999999999999</v>
+      </c>
+      <c r="C119">
+        <v>30.724</v>
+      </c>
+      <c r="D119">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="E119">
+        <v>0.30857000000000001</v>
+      </c>
+      <c r="F119">
+        <v>30.72437</v>
+      </c>
+      <c r="G119">
+        <v>19.699000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>23.707999999999998</v>
+      </c>
+      <c r="B120">
+        <v>24.536000000000001</v>
+      </c>
+      <c r="C120">
+        <v>30.84</v>
+      </c>
+      <c r="D120">
+        <v>4.7285000000000004</v>
+      </c>
+      <c r="E120">
+        <v>0.31052999999999997</v>
+      </c>
+      <c r="F120">
+        <v>30.840060000000001</v>
+      </c>
+      <c r="G120">
+        <v>19.7285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>23.908000000000001</v>
+      </c>
+      <c r="B121">
+        <v>24.54</v>
+      </c>
+      <c r="C121">
+        <v>30.920999999999999</v>
+      </c>
+      <c r="D121">
+        <v>4.7664999999999997</v>
+      </c>
+      <c r="E121">
+        <v>0.31304999999999999</v>
+      </c>
+      <c r="F121">
+        <v>30.920549999999999</v>
+      </c>
+      <c r="G121">
+        <v>19.766500000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>24.106999999999999</v>
+      </c>
+      <c r="B122">
+        <v>24.542999999999999</v>
+      </c>
+      <c r="C122">
+        <v>31.041</v>
+      </c>
+      <c r="D122">
+        <v>4.8055000000000003</v>
+      </c>
+      <c r="E122">
+        <v>0.31563999999999998</v>
+      </c>
+      <c r="F122">
+        <v>31.04054</v>
+      </c>
+      <c r="G122">
+        <v>19.805499999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>24.306000000000001</v>
+      </c>
+      <c r="B123">
+        <v>24.547000000000001</v>
+      </c>
+      <c r="C123">
+        <v>31.111000000000001</v>
+      </c>
+      <c r="D123">
+        <v>4.8442999999999996</v>
+      </c>
+      <c r="E123">
+        <v>0.31822</v>
+      </c>
+      <c r="F123">
+        <v>31.111000000000001</v>
+      </c>
+      <c r="G123">
+        <v>19.8443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>24.504999999999999</v>
+      </c>
+      <c r="B124">
+        <v>24.550999999999998</v>
+      </c>
+      <c r="C124">
+        <v>31.212</v>
+      </c>
+      <c r="D124">
+        <v>4.8895999999999997</v>
+      </c>
+      <c r="E124">
+        <v>0.32123000000000002</v>
+      </c>
+      <c r="F124">
+        <v>31.21181</v>
+      </c>
+      <c r="G124">
+        <v>19.889600000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>24.704999999999998</v>
+      </c>
+      <c r="B125">
+        <v>24.553999999999998</v>
+      </c>
+      <c r="C125">
+        <v>31.268000000000001</v>
+      </c>
+      <c r="D125">
+        <v>4.9177999999999997</v>
+      </c>
+      <c r="E125">
+        <v>0.32311000000000001</v>
+      </c>
+      <c r="F125">
+        <v>31.26801</v>
+      </c>
+      <c r="G125">
+        <v>19.9178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>24.904</v>
+      </c>
+      <c r="B126">
+        <v>24.558</v>
+      </c>
+      <c r="C126">
+        <v>31.376999999999999</v>
+      </c>
+      <c r="D126">
+        <v>4.9569000000000001</v>
+      </c>
+      <c r="E126">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="F126">
+        <v>31.376570000000001</v>
+      </c>
+      <c r="G126">
+        <v>19.956900000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="B127">
+        <v>24.562000000000001</v>
+      </c>
+      <c r="C127">
+        <v>31.454999999999998</v>
+      </c>
+      <c r="D127">
+        <v>4.9964000000000004</v>
+      </c>
+      <c r="E127">
+        <v>0.32832</v>
+      </c>
+      <c r="F127">
+        <v>31.455410000000001</v>
+      </c>
+      <c r="G127">
+        <v>19.996400000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>25.302</v>
+      </c>
+      <c r="B128">
+        <v>24.567</v>
+      </c>
+      <c r="C128">
+        <v>31.582000000000001</v>
+      </c>
+      <c r="D128">
+        <v>5.0449000000000002</v>
+      </c>
+      <c r="E128">
+        <v>0.33155000000000001</v>
+      </c>
+      <c r="F128">
+        <v>31.58165</v>
+      </c>
+      <c r="G128">
+        <v>20.044899999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>25.501000000000001</v>
+      </c>
+      <c r="B129">
+        <v>24.571000000000002</v>
+      </c>
+      <c r="C129">
+        <v>31.678000000000001</v>
+      </c>
+      <c r="D129">
+        <v>5.0857999999999999</v>
+      </c>
+      <c r="E129">
+        <v>0.33426</v>
+      </c>
+      <c r="F129">
+        <v>31.677879999999998</v>
+      </c>
+      <c r="G129">
+        <v>20.085799999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>25.701000000000001</v>
+      </c>
+      <c r="B130">
+        <v>24.574000000000002</v>
+      </c>
+      <c r="C130">
+        <v>31.777999999999999</v>
+      </c>
+      <c r="D130">
+        <v>5.1276999999999999</v>
+      </c>
+      <c r="E130">
+        <v>0.33705000000000002</v>
+      </c>
+      <c r="F130">
+        <v>31.778469999999999</v>
+      </c>
+      <c r="G130">
+        <v>20.127700000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>25.9</v>
+      </c>
+      <c r="B131">
+        <v>24.577999999999999</v>
+      </c>
+      <c r="C131">
+        <v>31.869</v>
+      </c>
+      <c r="D131">
+        <v>5.1677999999999997</v>
+      </c>
+      <c r="E131">
+        <v>0.33971000000000001</v>
+      </c>
+      <c r="F131">
+        <v>31.86881</v>
+      </c>
+      <c r="G131">
+        <v>20.1678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>26.099</v>
+      </c>
+      <c r="B132">
+        <v>24.582000000000001</v>
+      </c>
+      <c r="C132">
+        <v>31.948</v>
+      </c>
+      <c r="D132">
+        <v>5.2099000000000002</v>
+      </c>
+      <c r="E132">
+        <v>0.34250999999999998</v>
+      </c>
+      <c r="F132">
+        <v>31.947970000000002</v>
+      </c>
+      <c r="G132">
+        <v>20.209900000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>26.297999999999998</v>
+      </c>
+      <c r="B133">
+        <v>24.585999999999999</v>
+      </c>
+      <c r="C133">
+        <v>32.033000000000001</v>
+      </c>
+      <c r="D133">
+        <v>5.2515000000000001</v>
+      </c>
+      <c r="E133">
+        <v>0.34527000000000002</v>
+      </c>
+      <c r="F133">
+        <v>32.033149999999999</v>
+      </c>
+      <c r="G133">
+        <v>20.2515</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>26.498000000000001</v>
+      </c>
+      <c r="B134">
+        <v>24.588999999999999</v>
+      </c>
+      <c r="C134">
+        <v>32.145000000000003</v>
+      </c>
+      <c r="D134">
+        <v>5.2937000000000003</v>
+      </c>
+      <c r="E134">
+        <v>0.34808</v>
+      </c>
+      <c r="F134">
+        <v>32.14481</v>
+      </c>
+      <c r="G134">
+        <v>20.293700000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>26.696999999999999</v>
+      </c>
+      <c r="B135">
+        <v>24.591999999999999</v>
+      </c>
+      <c r="C135">
+        <v>32.261000000000003</v>
+      </c>
+      <c r="D135">
+        <v>5.3243999999999998</v>
+      </c>
+      <c r="E135">
+        <v>0.35011999999999999</v>
+      </c>
+      <c r="F135">
+        <v>32.260629999999999</v>
+      </c>
+      <c r="G135">
+        <v>20.324400000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>26.896000000000001</v>
+      </c>
+      <c r="B136">
+        <v>24.597999999999999</v>
+      </c>
+      <c r="C136">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="D136">
+        <v>5.3742000000000001</v>
+      </c>
+      <c r="E136">
+        <v>0.35342000000000001</v>
+      </c>
+      <c r="F136">
+        <v>32.370010000000001</v>
+      </c>
+      <c r="G136">
+        <v>20.374199999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>27.094999999999999</v>
+      </c>
+      <c r="B137">
+        <v>24.602</v>
+      </c>
+      <c r="C137">
+        <v>32.475000000000001</v>
+      </c>
+      <c r="D137">
+        <v>5.4156000000000004</v>
+      </c>
+      <c r="E137">
+        <v>0.35616999999999999</v>
+      </c>
+      <c r="F137">
+        <v>32.474809999999998</v>
+      </c>
+      <c r="G137">
+        <v>20.415600000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>27.295000000000002</v>
+      </c>
+      <c r="B138">
+        <v>24.605</v>
+      </c>
+      <c r="C138">
+        <v>32.552999999999997</v>
+      </c>
+      <c r="D138">
+        <v>5.4459</v>
+      </c>
+      <c r="E138">
+        <v>0.35819000000000001</v>
+      </c>
+      <c r="F138">
+        <v>32.553269999999998</v>
+      </c>
+      <c r="G138">
+        <v>20.445900000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>27.494</v>
+      </c>
+      <c r="B139">
+        <v>24.609000000000002</v>
+      </c>
+      <c r="C139">
+        <v>32.665999999999997</v>
+      </c>
+      <c r="D139">
+        <v>5.4939</v>
+      </c>
+      <c r="E139">
+        <v>0.36137000000000002</v>
+      </c>
+      <c r="F139">
+        <v>32.66583</v>
+      </c>
+      <c r="G139">
+        <v>20.4939</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>27.693000000000001</v>
+      </c>
+      <c r="B140">
+        <v>24.611999999999998</v>
+      </c>
+      <c r="C140">
+        <v>32.749000000000002</v>
+      </c>
+      <c r="D140">
+        <v>5.5235000000000003</v>
+      </c>
+      <c r="E140">
+        <v>0.36334</v>
+      </c>
+      <c r="F140">
+        <v>32.748649999999998</v>
+      </c>
+      <c r="G140">
+        <v>20.523499999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>27.891999999999999</v>
+      </c>
+      <c r="B141">
+        <v>24.617000000000001</v>
+      </c>
+      <c r="C141">
+        <v>32.851999999999997</v>
+      </c>
+      <c r="D141">
+        <v>5.5747999999999998</v>
+      </c>
+      <c r="E141">
+        <v>0.36675000000000002</v>
+      </c>
+      <c r="F141">
+        <v>32.852150000000002</v>
+      </c>
+      <c r="G141">
+        <v>20.5748</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>28.091000000000001</v>
+      </c>
+      <c r="B142">
+        <v>24.62</v>
+      </c>
+      <c r="C142">
+        <v>32.94</v>
+      </c>
+      <c r="D142">
+        <v>5.6052999999999997</v>
+      </c>
+      <c r="E142">
+        <v>0.36876999999999999</v>
+      </c>
+      <c r="F142">
+        <v>32.939660000000003</v>
+      </c>
+      <c r="G142">
+        <v>20.6053</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>28.291</v>
+      </c>
+      <c r="B143">
+        <v>24.625</v>
+      </c>
+      <c r="C143">
+        <v>33.084000000000003</v>
+      </c>
+      <c r="D143">
+        <v>5.6548999999999996</v>
+      </c>
+      <c r="E143">
+        <v>0.37207000000000001</v>
+      </c>
+      <c r="F143">
+        <v>33.083770000000001</v>
+      </c>
+      <c r="G143">
+        <v>20.654900000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>28.49</v>
+      </c>
+      <c r="B144">
+        <v>24.628</v>
+      </c>
+      <c r="C144">
+        <v>33.182000000000002</v>
+      </c>
+      <c r="D144">
+        <v>5.6856</v>
+      </c>
+      <c r="E144">
+        <v>0.37411</v>
+      </c>
+      <c r="F144">
+        <v>33.182400000000001</v>
+      </c>
+      <c r="G144">
+        <v>20.685600000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>28.689</v>
+      </c>
+      <c r="B145">
+        <v>24.632999999999999</v>
+      </c>
+      <c r="C145">
+        <v>33.26</v>
+      </c>
+      <c r="D145">
+        <v>5.7282000000000002</v>
+      </c>
+      <c r="E145">
+        <v>0.37694</v>
+      </c>
+      <c r="F145">
+        <v>33.259509999999999</v>
+      </c>
+      <c r="G145">
+        <v>20.728200000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>28.888000000000002</v>
+      </c>
+      <c r="B146">
+        <v>24.638000000000002</v>
+      </c>
+      <c r="C146">
+        <v>33.378999999999998</v>
+      </c>
+      <c r="D146">
+        <v>5.7785000000000002</v>
+      </c>
+      <c r="E146">
+        <v>0.38028000000000001</v>
+      </c>
+      <c r="F146">
+        <v>33.379159999999999</v>
+      </c>
+      <c r="G146">
+        <v>20.778500000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>29.088000000000001</v>
+      </c>
+      <c r="B147">
+        <v>24.64</v>
+      </c>
+      <c r="C147">
+        <v>33.465000000000003</v>
+      </c>
+      <c r="D147">
+        <v>5.8095999999999997</v>
+      </c>
+      <c r="E147">
+        <v>0.38235000000000002</v>
+      </c>
+      <c r="F147">
+        <v>33.465130000000002</v>
+      </c>
+      <c r="G147">
+        <v>20.8096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>29.286999999999999</v>
+      </c>
+      <c r="B148">
+        <v>24.645</v>
+      </c>
+      <c r="C148">
+        <v>33.524999999999999</v>
+      </c>
+      <c r="D148">
+        <v>5.8503999999999996</v>
+      </c>
+      <c r="E148">
+        <v>0.38505</v>
+      </c>
+      <c r="F148">
+        <v>33.525199999999998</v>
+      </c>
+      <c r="G148">
+        <v>20.8504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>29.486000000000001</v>
+      </c>
+      <c r="B149">
+        <v>24.648</v>
+      </c>
+      <c r="C149">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="D149">
+        <v>5.8921000000000001</v>
+      </c>
+      <c r="E149">
+        <v>0.38783000000000001</v>
+      </c>
+      <c r="F149">
+        <v>33.660209999999999</v>
+      </c>
+      <c r="G149">
+        <v>20.892099999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>29.684999999999999</v>
+      </c>
+      <c r="B150">
+        <v>24.652999999999999</v>
+      </c>
+      <c r="C150">
+        <v>33.808999999999997</v>
+      </c>
+      <c r="D150">
+        <v>5.9417999999999997</v>
+      </c>
+      <c r="E150">
+        <v>0.39112999999999998</v>
+      </c>
+      <c r="F150">
+        <v>33.809190000000001</v>
+      </c>
+      <c r="G150">
+        <v>20.941800000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>29.885000000000002</v>
+      </c>
+      <c r="B151">
+        <v>24.655999999999999</v>
+      </c>
+      <c r="C151">
+        <v>33.895000000000003</v>
+      </c>
+      <c r="D151">
+        <v>5.9706000000000001</v>
+      </c>
+      <c r="E151">
+        <v>0.39304</v>
+      </c>
+      <c r="F151">
+        <v>33.894959999999998</v>
+      </c>
+      <c r="G151">
+        <v>20.970600000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>30.084</v>
+      </c>
+      <c r="B152">
+        <v>24.66</v>
+      </c>
+      <c r="C152">
+        <v>34.003999999999998</v>
+      </c>
+      <c r="D152">
+        <v>6.0105000000000004</v>
+      </c>
+      <c r="E152">
+        <v>0.39568999999999999</v>
+      </c>
+      <c r="F152">
+        <v>34.004130000000004</v>
+      </c>
+      <c r="G152">
+        <v>21.0105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>30.283000000000001</v>
+      </c>
+      <c r="B153">
+        <v>24.666</v>
+      </c>
+      <c r="C153">
+        <v>34.121000000000002</v>
+      </c>
+      <c r="D153">
+        <v>6.0591999999999997</v>
+      </c>
+      <c r="E153">
+        <v>0.39892</v>
+      </c>
+      <c r="F153">
+        <v>34.120710000000003</v>
+      </c>
+      <c r="G153">
+        <v>21.059200000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>30.481999999999999</v>
+      </c>
+      <c r="B154">
+        <v>24.669</v>
+      </c>
+      <c r="C154">
+        <v>34.225000000000001</v>
+      </c>
+      <c r="D154">
+        <v>6.0865</v>
+      </c>
+      <c r="E154">
+        <v>0.40073999999999999</v>
+      </c>
+      <c r="F154">
+        <v>34.225029999999997</v>
+      </c>
+      <c r="G154">
+        <v>21.086500000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>30.681000000000001</v>
+      </c>
+      <c r="B155">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="C155">
+        <v>34.317999999999998</v>
+      </c>
+      <c r="D155">
+        <v>6.1341999999999999</v>
+      </c>
+      <c r="E155">
+        <v>0.40390999999999999</v>
+      </c>
+      <c r="F155">
+        <v>34.317860000000003</v>
+      </c>
+      <c r="G155">
+        <v>21.1342</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>30.881</v>
+      </c>
+      <c r="B156">
+        <v>24.677</v>
+      </c>
+      <c r="C156">
+        <v>34.424999999999997</v>
+      </c>
+      <c r="D156">
+        <v>6.1646000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.40593000000000001</v>
+      </c>
+      <c r="F156">
+        <v>34.424709999999997</v>
+      </c>
+      <c r="G156">
+        <v>21.1646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>31.08</v>
+      </c>
+      <c r="B157">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="C157">
+        <v>34.545000000000002</v>
+      </c>
+      <c r="D157">
+        <v>6.2045000000000003</v>
+      </c>
+      <c r="E157">
+        <v>0.40858</v>
+      </c>
+      <c r="F157">
+        <v>34.544829999999997</v>
+      </c>
+      <c r="G157">
+        <v>21.204499999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>31.279</v>
+      </c>
+      <c r="B158">
+        <v>24.684999999999999</v>
+      </c>
+      <c r="C158">
+        <v>34.661000000000001</v>
+      </c>
+      <c r="D158">
+        <v>6.2434000000000003</v>
+      </c>
+      <c r="E158">
+        <v>0.41116000000000003</v>
+      </c>
+      <c r="F158">
+        <v>34.661239999999999</v>
+      </c>
+      <c r="G158">
+        <v>21.243400000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>31.478000000000002</v>
+      </c>
+      <c r="B159">
+        <v>24.689</v>
+      </c>
+      <c r="C159">
+        <v>34.761000000000003</v>
+      </c>
+      <c r="D159">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="E159">
+        <v>0.41386000000000001</v>
+      </c>
+      <c r="F159">
+        <v>34.760959999999997</v>
+      </c>
+      <c r="G159">
+        <v>21.283999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>31.678000000000001</v>
+      </c>
+      <c r="B160">
+        <v>24.693000000000001</v>
+      </c>
+      <c r="C160">
+        <v>34.866</v>
+      </c>
+      <c r="D160">
+        <v>6.3263999999999996</v>
+      </c>
+      <c r="E160">
+        <v>0.41667999999999999</v>
+      </c>
+      <c r="F160">
+        <v>34.866039999999998</v>
+      </c>
+      <c r="G160">
+        <v>21.3264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>31.876999999999999</v>
+      </c>
+      <c r="B161">
+        <v>24.696999999999999</v>
+      </c>
+      <c r="C161">
+        <v>34.96</v>
+      </c>
+      <c r="D161">
+        <v>6.3665000000000003</v>
+      </c>
+      <c r="E161">
+        <v>0.41933999999999999</v>
+      </c>
+      <c r="F161">
+        <v>34.95993</v>
+      </c>
+      <c r="G161">
+        <v>21.366499999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>32.076000000000001</v>
+      </c>
+      <c r="B162">
+        <v>24.702999999999999</v>
+      </c>
+      <c r="C162">
+        <v>35.042999999999999</v>
+      </c>
+      <c r="D162">
+        <v>6.4176000000000002</v>
+      </c>
+      <c r="E162">
+        <v>0.42274</v>
+      </c>
+      <c r="F162">
+        <v>35.043199999999999</v>
+      </c>
+      <c r="G162">
+        <v>21.4176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>32.274999999999999</v>
+      </c>
+      <c r="B163">
+        <v>24.704999999999998</v>
+      </c>
+      <c r="C163">
+        <v>35.121000000000002</v>
+      </c>
+      <c r="D163">
+        <v>6.4484000000000004</v>
+      </c>
+      <c r="E163">
+        <v>0.42477999999999999</v>
+      </c>
+      <c r="F163">
+        <v>35.121009999999998</v>
+      </c>
+      <c r="G163">
+        <v>21.448399999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>32.475000000000001</v>
+      </c>
+      <c r="B164">
+        <v>24.710999999999999</v>
+      </c>
+      <c r="C164">
+        <v>35.256</v>
+      </c>
+      <c r="D164">
+        <v>6.5007000000000001</v>
+      </c>
+      <c r="E164">
+        <v>0.42825000000000002</v>
+      </c>
+      <c r="F164">
+        <v>35.255549999999999</v>
+      </c>
+      <c r="G164">
+        <v>21.500699999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>32.673999999999999</v>
+      </c>
+      <c r="B165">
+        <v>24.715</v>
+      </c>
+      <c r="C165">
+        <v>35.338999999999999</v>
+      </c>
+      <c r="D165">
+        <v>6.5307000000000004</v>
+      </c>
+      <c r="E165">
+        <v>0.43025000000000002</v>
+      </c>
+      <c r="F165">
+        <v>35.339019999999998</v>
+      </c>
+      <c r="G165">
+        <v>21.5307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>32.872999999999998</v>
+      </c>
+      <c r="B166">
+        <v>24.718</v>
+      </c>
+      <c r="C166">
+        <v>35.445</v>
+      </c>
+      <c r="D166">
+        <v>6.5696000000000003</v>
+      </c>
+      <c r="E166">
+        <v>0.43282999999999999</v>
+      </c>
+      <c r="F166">
+        <v>35.444670000000002</v>
+      </c>
+      <c r="G166">
+        <v>21.569600000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>33.072000000000003</v>
+      </c>
+      <c r="B167">
+        <v>24.722000000000001</v>
+      </c>
+      <c r="C167">
+        <v>33.893000000000001</v>
+      </c>
+      <c r="D167">
+        <v>6.6205999999999996</v>
+      </c>
+      <c r="E167">
+        <v>0.43622</v>
+      </c>
+      <c r="F167">
+        <v>33.893439999999998</v>
+      </c>
+      <c r="G167">
+        <v>21.6206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>33.271000000000001</v>
+      </c>
+      <c r="B168">
+        <v>24.725999999999999</v>
+      </c>
+      <c r="C168">
+        <v>8.7720000000000002</v>
+      </c>
+      <c r="D168">
+        <v>6.665</v>
+      </c>
+      <c r="E168">
+        <v>0.43917</v>
+      </c>
+      <c r="F168">
+        <v>8.7720300000000009</v>
+      </c>
+      <c r="G168">
+        <v>21.664999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>33.470999999999997</v>
+      </c>
+      <c r="B169">
+        <v>24.73</v>
+      </c>
+      <c r="C169">
+        <v>2.069</v>
+      </c>
+      <c r="D169">
+        <v>6.7031000000000001</v>
+      </c>
+      <c r="E169">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="F169">
+        <v>2.0687700000000002</v>
+      </c>
+      <c r="G169">
+        <v>21.703099999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>33.67</v>
+      </c>
+      <c r="B170">
+        <v>24.736000000000001</v>
+      </c>
+      <c r="C170">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D170">
+        <v>6.7507999999999999</v>
+      </c>
+      <c r="E170">
+        <v>0.44486999999999999</v>
+      </c>
+      <c r="F170">
+        <v>0.30591000000000002</v>
+      </c>
+      <c r="G170">
+        <v>21.750800000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>33.869</v>
+      </c>
+      <c r="B171">
+        <v>24.739000000000001</v>
+      </c>
+      <c r="C171">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D171">
+        <v>6.7813999999999997</v>
+      </c>
+      <c r="E171">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="F171">
+        <v>7.1919999999999998E-2</v>
+      </c>
+      <c r="G171">
+        <v>21.781400000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>34.067999999999998</v>
+      </c>
+      <c r="B172">
+        <v>24.742999999999999</v>
+      </c>
+      <c r="C172">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="D172">
+        <v>6.8212999999999999</v>
+      </c>
+      <c r="E172">
+        <v>0.44955000000000001</v>
+      </c>
+      <c r="F172">
+        <v>-2.154E-2</v>
+      </c>
+      <c r="G172">
+        <v>21.821300000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>34.268000000000001</v>
+      </c>
+      <c r="B173">
+        <v>24.748000000000001</v>
+      </c>
+      <c r="C173">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D173">
+        <v>6.8699000000000003</v>
+      </c>
+      <c r="E173">
+        <v>0.45278000000000002</v>
+      </c>
+      <c r="F173">
+        <v>-4.6510000000000003E-2</v>
+      </c>
+      <c r="G173">
+        <v>21.869900000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>34.466999999999999</v>
+      </c>
+      <c r="B174">
+        <v>24.751000000000001</v>
+      </c>
+      <c r="C174">
+        <v>-0.05</v>
+      </c>
+      <c r="D174">
+        <v>6.9004000000000003</v>
+      </c>
+      <c r="E174">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="F174">
+        <v>-5.0270000000000002E-2</v>
+      </c>
+      <c r="G174">
+        <v>21.900400000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>34.665999999999997</v>
+      </c>
+      <c r="B175">
+        <v>24.756</v>
+      </c>
+      <c r="C175">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="D175">
+        <v>6.9519000000000002</v>
+      </c>
+      <c r="E175">
+        <v>0.45823000000000003</v>
+      </c>
+      <c r="F175">
+        <v>-5.076E-2</v>
+      </c>
+      <c r="G175">
+        <v>21.951899999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>34.865000000000002</v>
+      </c>
+      <c r="B176">
+        <v>24.76</v>
+      </c>
+      <c r="C176">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D176">
+        <v>6.9810999999999996</v>
+      </c>
+      <c r="E176">
+        <v>0.46016000000000001</v>
+      </c>
+      <c r="F176">
+        <v>-5.3280000000000001E-2</v>
+      </c>
+      <c r="G176">
+        <v>21.981100000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>35.064</v>
+      </c>
+      <c r="B177">
+        <v>24.763999999999999</v>
+      </c>
+      <c r="C177">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D177">
+        <v>7.0308000000000002</v>
+      </c>
+      <c r="E177">
+        <v>0.46346999999999999</v>
+      </c>
+      <c r="F177">
+        <v>-5.2699999999999997E-2</v>
+      </c>
+      <c r="G177">
+        <v>22.030799999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>35.264000000000003</v>
+      </c>
+      <c r="B178">
+        <v>24.766999999999999</v>
+      </c>
+      <c r="C178">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D178">
+        <v>7.0609000000000002</v>
+      </c>
+      <c r="E178">
+        <v>0.46546999999999999</v>
+      </c>
+      <c r="F178">
+        <v>-5.2780000000000001E-2</v>
+      </c>
+      <c r="G178">
+        <v>22.0609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>35.463000000000001</v>
+      </c>
+      <c r="B179">
+        <v>24.771000000000001</v>
+      </c>
+      <c r="C179">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D179">
+        <v>7.1017999999999999</v>
+      </c>
+      <c r="E179">
+        <v>0.46817999999999999</v>
+      </c>
+      <c r="F179">
+        <v>-5.289E-2</v>
+      </c>
+      <c r="G179">
+        <v>22.101800000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>35.661999999999999</v>
+      </c>
+      <c r="B180">
+        <v>24.776</v>
+      </c>
+      <c r="C180">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D180">
+        <v>7.1406000000000001</v>
+      </c>
+      <c r="E180">
+        <v>0.47076000000000001</v>
+      </c>
+      <c r="F180">
+        <v>-5.2850000000000001E-2</v>
+      </c>
+      <c r="G180">
+        <v>22.140599999999999</v>
       </c>
     </row>
   </sheetData>
